--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -659,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP148"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="W71" sqref="W71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1868,6 @@
         <v>41.491022322872851</v>
       </c>
       <c r="F2" s="6">
-        <f>'Initial Buys'!B48</f>
         <v>1019.28</v>
       </c>
       <c r="G2" s="22">
@@ -1934,7 +1933,6 @@
         <v>62.264829239065307</v>
       </c>
       <c r="F3" s="6">
-        <f>'Initial Buys'!H48</f>
         <v>1026.8800000000001</v>
       </c>
       <c r="G3" s="22">
@@ -2000,7 +1998,6 @@
         <v>62.325467661083266</v>
       </c>
       <c r="F4" s="8">
-        <f>'Initial Buys'!K48</f>
         <v>1013.44</v>
       </c>
       <c r="G4" s="22">
@@ -2066,7 +2063,6 @@
         <v>75.082861483220569</v>
       </c>
       <c r="F5" s="6">
-        <f>'Initial Buys'!N48</f>
         <v>1072.4000000000001</v>
       </c>
       <c r="G5" s="22">
@@ -2132,7 +2128,6 @@
         <v>70.711343804537535</v>
       </c>
       <c r="F6" s="8">
-        <f>'Initial Buys'!Q48</f>
         <v>1012.94</v>
       </c>
       <c r="G6" s="22">
@@ -2198,7 +2193,6 @@
         <v>64.600527997776851</v>
       </c>
       <c r="F7" s="6">
-        <f>'Initial Buys'!T48</f>
         <v>920.78</v>
       </c>
       <c r="G7" s="22">
@@ -2264,7 +2258,6 @@
         <v>44.097255657197877</v>
       </c>
       <c r="F8" s="8">
-        <f>'Initial Buys'!W48</f>
         <v>997.04</v>
       </c>
       <c r="G8" s="22">
@@ -2330,7 +2323,6 @@
         <v>55.819911360933958</v>
       </c>
       <c r="F9" s="6">
-        <f>'Initial Buys'!Z48</f>
         <v>1027.08</v>
       </c>
       <c r="G9" s="22">
@@ -2396,7 +2388,6 @@
         <v>81.095521657557711</v>
       </c>
       <c r="F10" s="8">
-        <f>'Initial Buys'!AC48</f>
         <v>989.4</v>
       </c>
       <c r="G10" s="22">
@@ -2527,7 +2518,6 @@
         <v>38.710508775827591</v>
       </c>
       <c r="F12" s="8">
-        <f>'Initial Buys'!E98</f>
         <v>863.92</v>
       </c>
       <c r="G12" s="22">
@@ -2593,7 +2583,6 @@
         <v>137.98684026319475</v>
       </c>
       <c r="F13" s="6">
-        <f>'Initial Buys'!H98</f>
         <v>978.46</v>
       </c>
       <c r="G13" s="22">
@@ -2659,7 +2648,6 @@
         <v>76.761171758422989</v>
       </c>
       <c r="F14" s="8">
-        <f>'Initial Buys'!Q98</f>
         <v>1945.52</v>
       </c>
       <c r="G14" s="22">
@@ -2725,7 +2713,6 @@
         <v>42.354066153779286</v>
       </c>
       <c r="F15" s="6">
-        <f>'Initial Buys'!T98</f>
         <v>962.5</v>
       </c>
       <c r="G15" s="22">
@@ -3043,8 +3030,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -3033,8 +3033,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,11 +3581,11 @@
         <v>39</v>
       </c>
       <c r="D8" s="5">
-        <v>14.394</v>
+        <v>14.522</v>
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>65.921911907739329</v>
+        <v>66.001928109075891</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!T48</f>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="22">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q8" s="21">
         <v>0</v>
@@ -3633,15 +3633,15 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>19.02</v>
+        <v>28.619999999999997</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>28.099999999999998</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>948.88</v>
+        <v>958.48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="P23" s="16">
         <f t="shared" si="4"/>
-        <v>81.800000000000011</v>
+        <v>91.4</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" si="4"/>
@@ -4738,15 +4738,15 @@
       </c>
       <c r="T23" s="27">
         <f t="shared" si="4"/>
-        <v>517.34</v>
+        <v>526.94000000000005</v>
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>651.57000000000005</v>
+        <v>661.17000000000007</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30047.340000000004</v>
+        <v>30056.940000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>65.921911907739329</v>
+        <v>66.588856467972761</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!T48</f>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="G8" s="15">
         <f>'2016'!U8</f>
-        <v>28.099999999999998</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>28.099999999999998</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>948.88</v>
+        <v>958.48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -6419,7 +6419,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>651.57000000000005</v>
+        <v>661.17000000000007</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6475,11 +6475,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>676.48000000000013</v>
+        <v>686.08000000000015</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30072.25</v>
+        <v>30081.85</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="11988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -469,6 +469,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -504,6 +521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,218 +693,227 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP148"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD85" sqref="AD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.109375" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="I1" s="25"/>
       <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="L1" s="25"/>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="O1" s="25"/>
       <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="R1" s="25"/>
       <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="U1" s="25"/>
       <c r="V1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="X1" s="25"/>
       <c r="Y1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Z1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA1" s="25"/>
       <c r="AB1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AC1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD1" s="25"/>
       <c r="BO1" s="3"/>
       <c r="BP1" s="2"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42272</v>
       </c>
       <c r="B2" s="17">
         <v>1019.28</v>
       </c>
+      <c r="C2" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="D2" s="4">
         <v>42562</v>
       </c>
       <c r="E2" s="17">
         <v>490.55</v>
       </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
       <c r="G2" s="4">
         <v>42275</v>
       </c>
       <c r="H2" s="17">
         <v>1026.8800000000001</v>
       </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
       <c r="J2" s="4">
         <v>42278</v>
       </c>
       <c r="K2" s="17">
         <v>1013.44</v>
       </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
       <c r="M2" s="4">
         <v>42244</v>
       </c>
       <c r="N2" s="17">
         <v>1072.4000000000001</v>
       </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
       <c r="P2" s="4">
         <v>42278</v>
       </c>
       <c r="Q2" s="17">
         <v>1012.94</v>
       </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
       <c r="S2" s="4">
         <v>42278</v>
       </c>
       <c r="T2" s="17">
         <v>920.78</v>
       </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
       <c r="V2" s="4">
         <v>42265</v>
       </c>
       <c r="W2" s="17">
         <v>997.04</v>
       </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
       <c r="Y2" s="4">
         <v>42275</v>
       </c>
       <c r="Z2" s="17">
         <v>1027.08</v>
       </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
       <c r="AB2" s="4">
         <v>42272</v>
       </c>
       <c r="AC2" s="17">
         <v>989.4</v>
       </c>
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="17"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="D3" s="4">
         <v>42612</v>
       </c>
@@ -879,73 +922,73 @@
       </c>
       <c r="Z3" s="17"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="E40" s="17"/>
       <c r="H40" s="17"/>
@@ -957,7 +1000,7 @@
       <c r="Z40" s="17"/>
       <c r="AC40" s="17"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -1002,7 +1045,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42268</v>
       </c>
@@ -1156,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42612</v>
       </c>
@@ -1206,7 +1249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B53" s="29"/>
       <c r="K53" s="29"/>
       <c r="Q53" s="29"/>
@@ -1222,7 +1265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B54" s="29"/>
       <c r="K54" s="29"/>
       <c r="Q54" s="29"/>
@@ -1238,308 +1281,308 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B55" s="29"/>
       <c r="K55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="W55" s="29"/>
       <c r="Z55" s="29"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B56" s="29"/>
       <c r="K56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="W56" s="29"/>
       <c r="Z56" s="29"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B57" s="29"/>
       <c r="K57" s="29"/>
       <c r="Q57" s="29"/>
       <c r="W57" s="29"/>
       <c r="Z57" s="29"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
       <c r="K58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="W58" s="29"/>
       <c r="Z58" s="29"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="K59" s="29"/>
       <c r="Q59" s="29"/>
       <c r="W59" s="29"/>
       <c r="Z59" s="29"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="K60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="W60" s="29"/>
       <c r="Z60" s="29"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="K61" s="29"/>
       <c r="Q61" s="29"/>
       <c r="W61" s="29"/>
       <c r="Z61" s="29"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="K62" s="29"/>
       <c r="Q62" s="29"/>
       <c r="W62" s="29"/>
       <c r="Z62" s="29"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B63" s="29"/>
       <c r="K63" s="29"/>
       <c r="Q63" s="29"/>
       <c r="W63" s="29"/>
       <c r="Z63" s="29"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B64" s="29"/>
       <c r="K64" s="29"/>
       <c r="Q64" s="29"/>
       <c r="W64" s="29"/>
       <c r="Z64" s="29"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B65" s="29"/>
       <c r="K65" s="29"/>
       <c r="Q65" s="29"/>
       <c r="W65" s="29"/>
       <c r="Z65" s="29"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B66" s="29"/>
       <c r="K66" s="29"/>
       <c r="Q66" s="29"/>
       <c r="W66" s="29"/>
       <c r="Z66" s="29"/>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B67" s="29"/>
       <c r="K67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="W67" s="29"/>
       <c r="Z67" s="29"/>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B68" s="29"/>
       <c r="K68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="W68" s="29"/>
       <c r="Z68" s="29"/>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B69" s="29"/>
       <c r="K69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="W69" s="29"/>
       <c r="Z69" s="29"/>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B70" s="29"/>
       <c r="K70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="W70" s="29"/>
       <c r="Z70" s="29"/>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B71" s="29"/>
       <c r="K71" s="29"/>
       <c r="Q71" s="29"/>
       <c r="W71" s="29"/>
       <c r="Z71" s="29"/>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
       <c r="K72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="W72" s="29"/>
       <c r="Z72" s="29"/>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
       <c r="K73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="W73" s="29"/>
       <c r="Z73" s="29"/>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="K74" s="29"/>
       <c r="Q74" s="29"/>
       <c r="W74" s="29"/>
       <c r="Z74" s="29"/>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B75" s="29"/>
       <c r="K75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="W75" s="29"/>
       <c r="Z75" s="29"/>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B76" s="29"/>
       <c r="K76" s="29"/>
       <c r="Q76" s="29"/>
       <c r="W76" s="29"/>
       <c r="Z76" s="29"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B77" s="29"/>
       <c r="K77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="W77" s="29"/>
       <c r="Z77" s="29"/>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B78" s="29"/>
       <c r="K78" s="29"/>
       <c r="Q78" s="29"/>
       <c r="W78" s="29"/>
       <c r="Z78" s="29"/>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B79" s="29"/>
       <c r="K79" s="29"/>
       <c r="Q79" s="29"/>
       <c r="W79" s="29"/>
       <c r="Z79" s="29"/>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B80" s="29"/>
       <c r="K80" s="29"/>
       <c r="Q80" s="29"/>
       <c r="W80" s="29"/>
       <c r="Z80" s="29"/>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B81" s="29"/>
       <c r="K81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="W81" s="29"/>
       <c r="Z81" s="29"/>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B82" s="29"/>
       <c r="K82" s="29"/>
       <c r="Q82" s="29"/>
       <c r="W82" s="29"/>
       <c r="Z82" s="29"/>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B83" s="29"/>
       <c r="K83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="W83" s="29"/>
       <c r="Z83" s="29"/>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B84" s="29"/>
       <c r="K84" s="29"/>
       <c r="Q84" s="29"/>
       <c r="W84" s="29"/>
       <c r="Z84" s="29"/>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B85" s="29"/>
       <c r="K85" s="29"/>
       <c r="Q85" s="29"/>
       <c r="W85" s="29"/>
       <c r="Z85" s="29"/>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B86" s="29"/>
       <c r="K86" s="29"/>
       <c r="Q86" s="29"/>
       <c r="W86" s="29"/>
       <c r="Z86" s="29"/>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B87" s="29"/>
       <c r="K87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="W87" s="29"/>
       <c r="Z87" s="29"/>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B88" s="29"/>
       <c r="K88" s="29"/>
       <c r="Q88" s="29"/>
       <c r="W88" s="29"/>
       <c r="Z88" s="29"/>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="29"/>
       <c r="K89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="W89" s="29"/>
       <c r="Z89" s="29"/>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B90" s="29"/>
       <c r="K90" s="29"/>
       <c r="Q90" s="29"/>
       <c r="W90" s="29"/>
       <c r="Z90" s="29"/>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B91" s="29"/>
       <c r="K91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="W91" s="29"/>
       <c r="Z91" s="29"/>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B92" s="29"/>
       <c r="K92" s="29"/>
       <c r="Q92" s="29"/>
       <c r="W92" s="29"/>
       <c r="Z92" s="29"/>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B93" s="29"/>
       <c r="K93" s="29"/>
       <c r="Q93" s="29"/>
       <c r="W93" s="29"/>
       <c r="Z93" s="29"/>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B94" s="29"/>
       <c r="K94" s="29"/>
       <c r="Q94" s="29"/>
       <c r="W94" s="29"/>
       <c r="Z94" s="29"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B95" s="29"/>
       <c r="K95" s="29"/>
       <c r="Q95" s="29"/>
       <c r="W95" s="29"/>
       <c r="Z95" s="29"/>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B96" s="29"/>
       <c r="K96" s="29"/>
       <c r="Q96" s="29"/>
       <c r="W96" s="29"/>
       <c r="Z96" s="29"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B97" s="29"/>
       <c r="K97" s="29"/>
       <c r="Q97" s="29"/>
       <c r="W97" s="29"/>
       <c r="Z97" s="29"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B98" s="17">
         <f>SUM(B51:B97)</f>
         <v>2951.1000000000004</v>
@@ -1581,7 +1624,7 @@
         <v>1916.7600000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>42268</v>
       </c>
@@ -1600,7 +1643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>42612</v>
       </c>
@@ -1611,142 +1654,142 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B103" s="29"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B104" s="29"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B105" s="29"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B106" s="29"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B107" s="29"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B108" s="29"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B109" s="29"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B110" s="29"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B111" s="29"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B112" s="29"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="29"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="29"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="29"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="29"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="29"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="29"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="29"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="29"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="29"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="29"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="29"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="29"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="29"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="29"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="29"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="29"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="29"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="29"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="29"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="29"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="29"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="29"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="29"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="29"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="29"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="29"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="29"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="29"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="29"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="29"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="29"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="29"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="29"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="29"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="29"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="17">
         <f>SUM(B101:B147)</f>
         <v>1988.76</v>
@@ -1767,31 +1810,31 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1961,7 @@
         <v>1025.99</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1983,7 +2026,7 @@
         <v>1039.2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -2048,7 +2091,7 @@
         <v>1019.5200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2156,7 @@
         <v>1087.3500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
@@ -2178,7 +2221,7 @@
         <v>1012.94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2286,7 @@
         <v>929.86</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2351,7 @@
         <v>1007.49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2416,7 @@
         <v>1032.78</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
@@ -2438,7 +2481,7 @@
         <v>994.15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +2546,7 @@
         <v>1048.5800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
@@ -2568,7 +2611,7 @@
         <v>871.18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2633,7 +2676,7 @@
         <v>985.64</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -2698,7 +2741,7 @@
         <v>1954.8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2763,7 +2806,7 @@
         <v>974.44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +2871,7 @@
         <v>986.35</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>37</v>
       </c>
@@ -2893,7 +2936,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -2958,7 +3001,7 @@
         <v>1033.8599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -3034,32 +3077,32 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
@@ -3201,7 +3244,7 @@
         <v>1047.8999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3317,7 @@
         <v>1851.8899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
@@ -3348,7 +3391,7 @@
         <v>1076.93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
@@ -3422,7 +3465,7 @@
         <v>1038.25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -3496,7 +3539,7 @@
         <v>1133.2900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>25</v>
       </c>
@@ -3570,7 +3613,7 @@
         <v>1038.3400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>26</v>
       </c>
@@ -3644,7 +3687,7 @@
         <v>958.48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3761,7 @@
         <v>1039.44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -3792,7 +3835,7 @@
         <v>1057.9399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
@@ -3866,7 +3909,7 @@
         <v>1014.15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3983,7 @@
         <v>2985.4800000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
@@ -4014,7 +4057,7 @@
         <v>1476.4299999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>29</v>
       </c>
@@ -4088,7 +4131,7 @@
         <v>1009.2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>30</v>
       </c>
@@ -4161,7 +4204,7 @@
         <v>1936.08</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>31</v>
       </c>
@@ -4234,7 +4277,7 @@
         <v>416.47999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
@@ -4308,7 +4351,7 @@
         <v>1983.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
@@ -4382,7 +4425,7 @@
         <v>1011.86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
@@ -4456,7 +4499,7 @@
         <v>2215.3500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>36</v>
       </c>
@@ -4529,7 +4572,7 @@
         <v>1765.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>37</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>1969.63</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>38</v>
       </c>
@@ -4677,7 +4720,7 @@
         <v>2030.72</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4764,31 +4807,31 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +4973,7 @@
         <v>1069.8499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5004,7 +5047,7 @@
         <v>1851.8899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -5078,7 +5121,7 @@
         <v>1076.93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
@@ -5152,7 +5195,7 @@
         <v>1038.25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5226,7 +5269,7 @@
         <v>1133.2900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
@@ -5300,7 +5343,7 @@
         <v>1038.3400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -5374,7 +5417,7 @@
         <v>958.48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5491,7 @@
         <v>1039.44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5522,7 +5565,7 @@
         <v>1057.9399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>28</v>
       </c>
@@ -5596,7 +5639,7 @@
         <v>1014.15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -5670,7 +5713,7 @@
         <v>2985.4800000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
@@ -5744,7 +5787,7 @@
         <v>1476.4299999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -5818,7 +5861,7 @@
         <v>1009.2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>30</v>
       </c>
@@ -5892,7 +5935,7 @@
         <v>1936.08</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -5966,7 +6009,7 @@
         <v>419.44</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>32</v>
       </c>
@@ -6040,7 +6083,7 @@
         <v>1983.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -6114,7 +6157,7 @@
         <v>1011.86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
@@ -6188,7 +6231,7 @@
         <v>2215.3500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -6262,7 +6305,7 @@
         <v>1765.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>37</v>
       </c>
@@ -6336,7 +6379,7 @@
         <v>1969.63</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -6410,7 +6453,7 @@
         <v>2030.72</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="63">
   <si>
     <t>Symbols</t>
   </si>
@@ -693,8 +693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD85" sqref="AD85"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,8 +1209,14 @@
       <c r="C52" t="s">
         <v>62</v>
       </c>
+      <c r="D52" s="4">
+        <v>42629</v>
+      </c>
       <c r="E52">
         <v>589.67999999999995</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
       </c>
       <c r="J52" s="4">
         <v>42612</v>
@@ -3077,7 +3083,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,11 +3261,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="24">
-        <v>37</v>
+        <v>37.036000000000001</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" si="0"/>
-        <v>50.05108108108108</v>
+        <f>V3/D3</f>
+        <v>50.048331353277888</v>
       </c>
       <c r="F3" s="8">
         <f>'Initial Buys'!E48</f>
@@ -3296,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R3" s="22">
         <v>0</v>
@@ -3306,15 +3312,15 @@
       </c>
       <c r="T3" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="3"/>
-        <v>1851.8899999999999</v>
+        <v>1853.59</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3846,11 +3852,11 @@
         <v>8</v>
       </c>
       <c r="D11" s="24">
-        <v>12.259</v>
+        <v>12.327</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>82.726976099192427</v>
+        <v>82.91717368378356</v>
       </c>
       <c r="F11" s="8">
         <f>'Initial Buys'!AC48</f>
@@ -3888,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="21">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="R11" s="22">
         <v>0</v>
@@ -3898,15 +3904,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27.97</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="2"/>
-        <v>24.75</v>
+        <v>32.72</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="3"/>
-        <v>1014.15</v>
+        <v>1022.12</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3994,11 +4000,11 @@
         <v>6</v>
       </c>
       <c r="D13" s="24">
-        <v>22.504999999999999</v>
+        <v>36.692999999999998</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>65.604532326149737</v>
+        <v>40.452129834028291</v>
       </c>
       <c r="F13" s="8">
         <f>'Initial Buys'!E98</f>
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="21">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="R13" s="22">
         <v>0</v>
@@ -4046,15 +4052,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" si="1"/>
-        <v>15.57</v>
+        <v>23.45</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>22.83</v>
+        <v>30.709999999999997</v>
       </c>
       <c r="V13" s="12">
         <f t="shared" si="3"/>
-        <v>1476.4299999999998</v>
+        <v>1484.31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -4215,11 +4221,11 @@
         <v>6</v>
       </c>
       <c r="D16" s="5">
-        <v>4.0279999999999996</v>
+        <v>4.056</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>103.39622641509435</v>
+        <v>103.42948717948718</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!N98</f>
@@ -4253,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="Q16" s="21">
         <v>0</v>
@@ -4266,15 +4272,15 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>2.96</v>
+        <v>5.99</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="2"/>
-        <v>2.96</v>
+        <v>5.99</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>416.47999999999996</v>
+        <v>419.51</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -4765,11 +4771,11 @@
       </c>
       <c r="P23" s="16">
         <f t="shared" si="4"/>
-        <v>91.4</v>
+        <v>94.43</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="R23" s="16">
         <f t="shared" si="4"/>
@@ -4781,15 +4787,15 @@
       </c>
       <c r="T23" s="27">
         <f t="shared" si="4"/>
-        <v>526.94000000000005</v>
+        <v>547.52</v>
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>661.17000000000007</v>
+        <v>681.75000000000011</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30056.940000000002</v>
+        <v>30077.519999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4988,7 +4994,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" si="0"/>
-        <v>50.05108108108108</v>
+        <v>50.097027027027025</v>
       </c>
       <c r="F3" s="8">
         <f>'Initial Buys'!E48</f>
@@ -4996,7 +5002,7 @@
       </c>
       <c r="G3" s="14">
         <f>'2016'!U3</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H3" s="22">
         <v>0</v>
@@ -5040,11 +5046,11 @@
       </c>
       <c r="U3" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="3"/>
-        <v>1851.8899999999999</v>
+        <v>1853.59</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -5580,7 +5586,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>82.726976099192427</v>
+        <v>83.37711069418387</v>
       </c>
       <c r="F11" s="8">
         <f>'Initial Buys'!AC48</f>
@@ -5588,7 +5594,7 @@
       </c>
       <c r="G11" s="14">
         <f>'2016'!U11</f>
-        <v>24.75</v>
+        <v>32.72</v>
       </c>
       <c r="H11" s="22">
         <v>0</v>
@@ -5632,11 +5638,11 @@
       </c>
       <c r="U11" s="14">
         <f t="shared" si="2"/>
-        <v>24.75</v>
+        <v>32.72</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="3"/>
-        <v>1014.15</v>
+        <v>1022.12</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -5728,7 +5734,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>65.604532326149737</v>
+        <v>65.954676738502556</v>
       </c>
       <c r="F13" s="8">
         <f>'Initial Buys'!E98</f>
@@ -5736,7 +5742,7 @@
       </c>
       <c r="G13" s="14">
         <f>'2016'!U13</f>
-        <v>22.83</v>
+        <v>30.709999999999997</v>
       </c>
       <c r="H13" s="22">
         <v>0</v>
@@ -5780,11 +5786,11 @@
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>22.83</v>
+        <v>30.709999999999997</v>
       </c>
       <c r="V13" s="12">
         <f t="shared" si="3"/>
-        <v>1476.4299999999998</v>
+        <v>1484.31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -5950,7 +5956,7 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>104.13108242303873</v>
+        <v>104.88331678252234</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!N98</f>
@@ -5958,7 +5964,7 @@
       </c>
       <c r="G16" s="15">
         <f>'2016'!U16</f>
-        <v>2.96</v>
+        <v>5.99</v>
       </c>
       <c r="H16" s="22">
         <v>0</v>
@@ -6002,11 +6008,11 @@
       </c>
       <c r="U16" s="15">
         <f t="shared" si="2"/>
-        <v>5.92</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>419.44</v>
+        <v>422.46999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -6462,7 +6468,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>661.17000000000007</v>
+        <v>681.75000000000011</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6518,11 +6524,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>686.08000000000015</v>
+        <v>706.66000000000008</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30081.85</v>
+        <v>30102.430000000008</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -3082,8 +3082,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4148,11 +4148,11 @@
         <v>6</v>
       </c>
       <c r="D15" s="24">
-        <v>29</v>
+        <v>29.283999999999999</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>66.761379310344822</v>
+        <v>66.718003005053959</v>
       </c>
       <c r="F15" s="8">
         <f>'Initial Buys'!K98</f>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="21">
-        <v>0</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="R15" s="22">
         <v>0</v>
@@ -4199,15 +4199,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="3"/>
-        <v>1936.08</v>
+        <v>1953.77</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="Q23" s="27">
         <f t="shared" si="4"/>
-        <v>17.55</v>
+        <v>35.24</v>
       </c>
       <c r="R23" s="16">
         <f t="shared" si="4"/>
@@ -4787,15 +4787,15 @@
       </c>
       <c r="T23" s="27">
         <f t="shared" si="4"/>
-        <v>547.52</v>
+        <v>565.21</v>
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>681.75000000000011</v>
+        <v>699.44</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30077.519999999997</v>
+        <v>30095.21</v>
       </c>
     </row>
   </sheetData>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>66.761379310344822</v>
+        <v>67.371379310344821</v>
       </c>
       <c r="F15" s="8">
         <f>'Initial Buys'!K98</f>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="G15" s="14">
         <f>'2016'!U15</f>
-        <v>0</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="H15" s="22">
         <v>0</v>
@@ -5934,11 +5934,11 @@
       </c>
       <c r="U15" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="3"/>
-        <v>1936.08</v>
+        <v>1953.77</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -6468,7 +6468,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>681.75000000000011</v>
+        <v>699.44</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6524,11 +6524,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>706.66000000000008</v>
+        <v>724.35000000000014</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30102.430000000008</v>
+        <v>30120.120000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="11988" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="69">
   <si>
     <t>Symbols</t>
   </si>
@@ -217,11 +217,29 @@
   <si>
     <t>buy</t>
   </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>MKC</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>McCormick &amp; Company Inc</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight Co</t>
+  </si>
+  <si>
+    <t>J M Smucker Co</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -269,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +400,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,23 +499,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -521,23 +534,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,62 +687,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="V86" sqref="V86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.109375" customWidth="1"/>
-    <col min="31" max="31" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.42578125" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -819,7 +815,7 @@
       <c r="BO1" s="3"/>
       <c r="BP1" s="2"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42272</v>
       </c>
@@ -913,7 +909,7 @@
       <c r="BO2" s="4"/>
       <c r="BP2" s="17"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D3" s="4">
         <v>42612</v>
       </c>
@@ -922,73 +918,73 @@
       </c>
       <c r="Z3" s="17"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="25"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="25"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="25"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B37" s="25"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="E40" s="17"/>
       <c r="H40" s="17"/>
@@ -1000,7 +996,7 @@
       <c r="Z40" s="17"/>
       <c r="AC40" s="17"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42268</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>42612</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B53" s="29"/>
       <c r="K53" s="29"/>
       <c r="Q53" s="29"/>
@@ -1271,7 +1267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B54" s="29"/>
       <c r="K54" s="29"/>
       <c r="Q54" s="29"/>
@@ -1287,308 +1283,308 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B55" s="29"/>
       <c r="K55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="W55" s="29"/>
       <c r="Z55" s="29"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B56" s="29"/>
       <c r="K56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="W56" s="29"/>
       <c r="Z56" s="29"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B57" s="29"/>
       <c r="K57" s="29"/>
       <c r="Q57" s="29"/>
       <c r="W57" s="29"/>
       <c r="Z57" s="29"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B58" s="29"/>
       <c r="K58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="W58" s="29"/>
       <c r="Z58" s="29"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B59" s="29"/>
       <c r="K59" s="29"/>
       <c r="Q59" s="29"/>
       <c r="W59" s="29"/>
       <c r="Z59" s="29"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B60" s="29"/>
       <c r="K60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="W60" s="29"/>
       <c r="Z60" s="29"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B61" s="29"/>
       <c r="K61" s="29"/>
       <c r="Q61" s="29"/>
       <c r="W61" s="29"/>
       <c r="Z61" s="29"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B62" s="29"/>
       <c r="K62" s="29"/>
       <c r="Q62" s="29"/>
       <c r="W62" s="29"/>
       <c r="Z62" s="29"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B63" s="29"/>
       <c r="K63" s="29"/>
       <c r="Q63" s="29"/>
       <c r="W63" s="29"/>
       <c r="Z63" s="29"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B64" s="29"/>
       <c r="K64" s="29"/>
       <c r="Q64" s="29"/>
       <c r="W64" s="29"/>
       <c r="Z64" s="29"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65" s="29"/>
       <c r="K65" s="29"/>
       <c r="Q65" s="29"/>
       <c r="W65" s="29"/>
       <c r="Z65" s="29"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66" s="29"/>
       <c r="K66" s="29"/>
       <c r="Q66" s="29"/>
       <c r="W66" s="29"/>
       <c r="Z66" s="29"/>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67" s="29"/>
       <c r="K67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="W67" s="29"/>
       <c r="Z67" s="29"/>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68" s="29"/>
       <c r="K68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="W68" s="29"/>
       <c r="Z68" s="29"/>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69" s="29"/>
       <c r="K69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="W69" s="29"/>
       <c r="Z69" s="29"/>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70" s="29"/>
       <c r="K70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="W70" s="29"/>
       <c r="Z70" s="29"/>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71" s="29"/>
       <c r="K71" s="29"/>
       <c r="Q71" s="29"/>
       <c r="W71" s="29"/>
       <c r="Z71" s="29"/>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72" s="29"/>
       <c r="K72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="W72" s="29"/>
       <c r="Z72" s="29"/>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73" s="29"/>
       <c r="K73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="W73" s="29"/>
       <c r="Z73" s="29"/>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74" s="29"/>
       <c r="K74" s="29"/>
       <c r="Q74" s="29"/>
       <c r="W74" s="29"/>
       <c r="Z74" s="29"/>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75" s="29"/>
       <c r="K75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="W75" s="29"/>
       <c r="Z75" s="29"/>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76" s="29"/>
       <c r="K76" s="29"/>
       <c r="Q76" s="29"/>
       <c r="W76" s="29"/>
       <c r="Z76" s="29"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77" s="29"/>
       <c r="K77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="W77" s="29"/>
       <c r="Z77" s="29"/>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78" s="29"/>
       <c r="K78" s="29"/>
       <c r="Q78" s="29"/>
       <c r="W78" s="29"/>
       <c r="Z78" s="29"/>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79" s="29"/>
       <c r="K79" s="29"/>
       <c r="Q79" s="29"/>
       <c r="W79" s="29"/>
       <c r="Z79" s="29"/>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80" s="29"/>
       <c r="K80" s="29"/>
       <c r="Q80" s="29"/>
       <c r="W80" s="29"/>
       <c r="Z80" s="29"/>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81" s="29"/>
       <c r="K81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="W81" s="29"/>
       <c r="Z81" s="29"/>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B82" s="29"/>
       <c r="K82" s="29"/>
       <c r="Q82" s="29"/>
       <c r="W82" s="29"/>
       <c r="Z82" s="29"/>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B83" s="29"/>
       <c r="K83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="W83" s="29"/>
       <c r="Z83" s="29"/>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B84" s="29"/>
       <c r="K84" s="29"/>
       <c r="Q84" s="29"/>
       <c r="W84" s="29"/>
       <c r="Z84" s="29"/>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B85" s="29"/>
       <c r="K85" s="29"/>
       <c r="Q85" s="29"/>
       <c r="W85" s="29"/>
       <c r="Z85" s="29"/>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B86" s="29"/>
       <c r="K86" s="29"/>
       <c r="Q86" s="29"/>
       <c r="W86" s="29"/>
       <c r="Z86" s="29"/>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87" s="29"/>
       <c r="K87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="W87" s="29"/>
       <c r="Z87" s="29"/>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" s="29"/>
       <c r="K88" s="29"/>
       <c r="Q88" s="29"/>
       <c r="W88" s="29"/>
       <c r="Z88" s="29"/>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B89" s="29"/>
       <c r="K89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="W89" s="29"/>
       <c r="Z89" s="29"/>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90" s="29"/>
       <c r="K90" s="29"/>
       <c r="Q90" s="29"/>
       <c r="W90" s="29"/>
       <c r="Z90" s="29"/>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" s="29"/>
       <c r="K91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="W91" s="29"/>
       <c r="Z91" s="29"/>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B92" s="29"/>
       <c r="K92" s="29"/>
       <c r="Q92" s="29"/>
       <c r="W92" s="29"/>
       <c r="Z92" s="29"/>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B93" s="29"/>
       <c r="K93" s="29"/>
       <c r="Q93" s="29"/>
       <c r="W93" s="29"/>
       <c r="Z93" s="29"/>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94" s="29"/>
       <c r="K94" s="29"/>
       <c r="Q94" s="29"/>
       <c r="W94" s="29"/>
       <c r="Z94" s="29"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B95" s="29"/>
       <c r="K95" s="29"/>
       <c r="Q95" s="29"/>
       <c r="W95" s="29"/>
       <c r="Z95" s="29"/>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B96" s="29"/>
       <c r="K96" s="29"/>
       <c r="Q96" s="29"/>
       <c r="W96" s="29"/>
       <c r="Z96" s="29"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B97" s="29"/>
       <c r="K97" s="29"/>
       <c r="Q97" s="29"/>
       <c r="W97" s="29"/>
       <c r="Z97" s="29"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B98" s="17">
         <f>SUM(B51:B97)</f>
         <v>2951.1000000000004</v>
@@ -1630,7 +1626,7 @@
         <v>1916.7600000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>42268</v>
       </c>
@@ -1649,7 +1645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>42612</v>
       </c>
@@ -1660,145 +1656,207 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B103" s="29"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B104" s="29"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B105" s="29"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B106" s="29"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B107" s="29"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B108" s="29"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B109" s="29"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B110" s="29"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B111" s="29"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B112" s="29"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="29"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="29"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="29"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="29"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="29"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="29"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="29"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="29"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="29"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="29"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="29"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="29"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="29"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="29"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="29"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="29"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="29"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="29"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="29"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="29"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="29"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="29"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="29"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="29"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="29"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="29"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="29"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="29"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="29"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="29"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="29"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="29"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" s="29"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B146" s="29"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" s="29"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" s="17">
         <f>SUM(B101:B147)</f>
         <v>1988.76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>42667</v>
+      </c>
+      <c r="B151" s="17">
+        <v>2042.5</v>
+      </c>
+      <c r="D151" s="4">
+        <v>42667</v>
+      </c>
+      <c r="E151" s="17">
+        <v>1412.7</v>
+      </c>
+      <c r="G151" s="4">
+        <v>42667</v>
+      </c>
+      <c r="H151" s="17">
+        <v>1303.4000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="29"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="29"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="29"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="29">
+        <f>SUM(B151,B199)</f>
+        <v>2042.5</v>
+      </c>
+      <c r="E200" s="29">
+        <f>SUM(E151,E199)</f>
+        <v>1412.7</v>
+      </c>
+      <c r="H200" s="29">
+        <f>SUM(H151,H199)</f>
+        <v>1303.4000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1816,31 +1874,31 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +2025,7 @@
         <v>1025.99</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2090,7 @@
         <v>1039.2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -2097,7 +2155,7 @@
         <v>1019.5200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2220,7 @@
         <v>1087.3500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
@@ -2227,7 +2285,7 @@
         <v>1012.94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2350,7 @@
         <v>929.86</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2415,7 @@
         <v>1007.49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +2480,7 @@
         <v>1032.78</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
@@ -2487,7 +2545,7 @@
         <v>994.15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2610,7 @@
         <v>1048.5800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2675,7 @@
         <v>871.18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2682,7 +2740,7 @@
         <v>985.64</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -2747,7 +2805,7 @@
         <v>1954.8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2812,7 +2870,7 @@
         <v>974.44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
@@ -2877,7 +2935,7 @@
         <v>986.35</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>37</v>
       </c>
@@ -2942,7 +3000,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -3007,7 +3065,7 @@
         <v>1033.8599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -3080,35 +3138,35 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3248,7 @@
         <v>24.728000000000002</v>
       </c>
       <c r="E2" s="20">
-        <f t="shared" ref="E2:E22" si="0">V2/D2</f>
+        <f t="shared" ref="E2:E25" si="0">V2/D2</f>
         <v>42.377062439340008</v>
       </c>
       <c r="F2" s="6">
@@ -3238,19 +3296,19 @@
         <v>0</v>
       </c>
       <c r="T2" s="15">
-        <f t="shared" ref="T2:T22" si="1">SUM(H2:S2)</f>
+        <f t="shared" ref="T2:T25" si="1">SUM(H2:S2)</f>
         <v>21.909999999999997</v>
       </c>
       <c r="U2" s="15">
-        <f t="shared" ref="U2:U22" si="2">SUM(G2:S2)</f>
+        <f t="shared" ref="U2:U25" si="2">SUM(G2:S2)</f>
         <v>28.619999999999997</v>
       </c>
       <c r="V2" s="13">
-        <f t="shared" ref="V2:V22" si="3">SUM(F2, U2)</f>
+        <f t="shared" ref="V2:V25" si="3">SUM(F2, U2)</f>
         <v>1047.8999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
@@ -3323,7 +3381,7 @@
         <v>1853.59</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
@@ -3337,7 +3395,7 @@
         <v>16.690000000000001</v>
       </c>
       <c r="E4" s="20">
-        <f t="shared" si="0"/>
+        <f>V4/D4</f>
         <v>64.525464349910123</v>
       </c>
       <c r="F4" s="6">
@@ -3397,1405 +3455,1624 @@
         <v>1076.93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32">
+        <v>43</v>
+      </c>
+      <c r="E5" s="34">
+        <f>V5/D5</f>
+        <v>47.5</v>
+      </c>
+      <c r="F5" s="35">
+        <f>'Initial Buys'!B200</f>
+        <v>2042.5</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="37">
+        <f t="shared" si="3"/>
+        <v>2042.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D6" s="5">
         <v>16.358000000000001</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
         <v>63.470473162978358</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="6">
         <f>'Initial Buys'!K48</f>
         <v>1013.44</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G6" s="15">
         <f>'2015'!S4</f>
         <v>6.08</v>
       </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
         <v>6.09</v>
       </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
         <v>6.31</v>
       </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
         <v>6.33</v>
       </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
         <f t="shared" si="1"/>
         <v>18.729999999999997</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U6" s="15">
         <f t="shared" si="2"/>
         <v>24.810000000000002</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V6" s="13">
         <f t="shared" si="3"/>
         <v>1038.25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="32">
         <v>14.637</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
         <v>77.426385188221644</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="35">
         <f>'Initial Buys'!N48</f>
         <v>1072.4000000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="36">
         <f>'2015'!S5</f>
         <v>14.95</v>
       </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
         <v>15.13</v>
       </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
         <v>15.34</v>
       </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
         <v>15.47</v>
       </c>
-      <c r="Q6" s="21">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+      <c r="T7" s="36">
         <f t="shared" si="1"/>
         <v>45.94</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U7" s="36">
         <f t="shared" si="2"/>
         <v>60.89</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V7" s="37">
         <f t="shared" si="3"/>
         <v>1133.2900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="5">
         <v>14.324999999999999</v>
       </c>
-      <c r="E7" s="19">
-        <f>V7/D7</f>
+      <c r="E8" s="20">
+        <f>V8/D8</f>
         <v>72.484467713787097</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="6">
         <f>'Initial Buys'!Q48</f>
         <v>1012.94</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="15">
         <f>'2015'!S6</f>
         <v>0</v>
       </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
         <v>8.4</v>
       </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
         <v>8.4700000000000006</v>
       </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="21">
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
         <v>8.5299999999999994</v>
       </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21">
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
         <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U8" s="15">
         <f t="shared" si="2"/>
         <v>25.4</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V8" s="13">
         <f t="shared" si="3"/>
         <v>1038.3400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="32">
         <v>14.522</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="34">
         <f t="shared" si="0"/>
         <v>66.001928109075891</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="35">
         <f>'Initial Buys'!T48</f>
         <v>920.78</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="36">
         <f>'2015'!S7</f>
         <v>9.08</v>
       </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <v>9.5</v>
       </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
         <v>9.52</v>
       </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
         <v>9.6</v>
       </c>
-      <c r="Q8" s="21">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="36">
         <f t="shared" si="1"/>
         <v>28.619999999999997</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U9" s="36">
         <f t="shared" si="2"/>
         <v>37.699999999999996</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V9" s="37">
         <f t="shared" si="3"/>
         <v>958.48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D10" s="5">
         <v>22.847000000000001</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>45.495688711865888</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="6">
         <f>'Initial Buys'!W48</f>
         <v>997.04</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="15">
         <f>'2015'!S8</f>
         <v>10.45</v>
       </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
         <v>10.54</v>
       </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
         <v>10.66</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="21">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
         <v>10.75</v>
       </c>
-      <c r="Q9" s="21">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22">
-        <v>0</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
         <f t="shared" si="1"/>
         <v>31.95</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U10" s="15">
         <f t="shared" si="2"/>
         <v>42.4</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V10" s="13">
         <f t="shared" si="3"/>
         <v>1039.44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="32">
         <v>18.501999999999999</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>57.179764349800017</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="35">
         <f>'Initial Buys'!Z48</f>
         <v>1027.08</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="36">
         <f>'2015'!S9</f>
         <v>5.7</v>
       </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
         <v>7.96</v>
       </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
         <v>8.39</v>
       </c>
-      <c r="M10" s="21">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="21">
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
         <v>8.81</v>
       </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22">
-        <v>0</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="36">
         <f t="shared" si="1"/>
         <v>25.160000000000004</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U11" s="36">
         <f t="shared" si="2"/>
         <v>30.86</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V11" s="37">
         <f t="shared" si="3"/>
         <v>1057.9399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D12" s="5">
         <v>12.327</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>82.91717368378356</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="6">
         <f>'Initial Buys'!AC48</f>
         <v>989.4</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="15">
         <f>'2015'!S10</f>
         <v>4.75</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="22">
         <v>6.63</v>
       </c>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <v>6.66</v>
       </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
         <v>6.71</v>
       </c>
-      <c r="O11" s="21">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="21">
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="21">
         <v>7.97</v>
       </c>
-      <c r="R11" s="22">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
         <f t="shared" si="1"/>
         <v>27.97</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U12" s="15">
         <f t="shared" si="2"/>
         <v>32.72</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V12" s="13">
         <f t="shared" si="3"/>
         <v>1022.12</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="32">
         <v>27.31</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>109.31819846210182</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="35">
         <f>'Initial Buys'!B98</f>
         <v>2951.1000000000004</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G13" s="36">
         <f>'2015'!S11</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
         <v>8.91</v>
       </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
-      <c r="O12" s="21">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
         <v>8.9700000000000006</v>
       </c>
-      <c r="Q12" s="21">
-        <v>0</v>
-      </c>
-      <c r="R12" s="22">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21">
+        <v>0</v>
+      </c>
+      <c r="T13" s="36">
         <f t="shared" si="1"/>
         <v>26.18</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U13" s="36">
         <f t="shared" si="2"/>
         <v>34.380000000000003</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V13" s="37">
         <f t="shared" si="3"/>
         <v>2985.4800000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D14" s="5">
         <v>36.692999999999998</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>40.452129834028291</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="6">
         <f>'Initial Buys'!E98</f>
         <v>1453.6</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="15">
         <f>'2015'!S12</f>
         <v>7.26</v>
       </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
         <v>7.75</v>
       </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <v>7.82</v>
       </c>
-      <c r="O13" s="21">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
         <v>7.88</v>
       </c>
-      <c r="R13" s="22">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="14">
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
         <f t="shared" si="1"/>
         <v>23.45</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U14" s="15">
         <f t="shared" si="2"/>
         <v>30.709999999999997</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V14" s="13">
         <f t="shared" si="3"/>
         <v>1484.31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="15" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="32">
+        <v>15</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="0"/>
+        <v>94.18</v>
+      </c>
+      <c r="F15" s="35">
+        <f>'Initial Buys'!E200</f>
+        <v>1412.7</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
+        <v>0</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="37">
+        <f t="shared" si="3"/>
+        <v>1412.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D16" s="5">
         <v>7.1879999999999997</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>140.40066777963273</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F16" s="6">
         <f>'Initial Buys'!H98</f>
         <v>978.46</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G16" s="15">
         <f>'2015'!S13</f>
         <v>7.18</v>
       </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
         <v>7.77</v>
       </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
         <v>7.86</v>
       </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
         <v>7.93</v>
       </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="22">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
         <f t="shared" si="1"/>
         <v>23.56</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U16" s="15">
         <f t="shared" si="2"/>
         <v>30.74</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V16" s="13">
         <f t="shared" si="3"/>
         <v>1009.2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D17" s="32">
         <v>29.283999999999999</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E17" s="34">
         <f t="shared" si="0"/>
         <v>66.718003005053959</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="35">
         <f>'Initial Buys'!K98</f>
         <v>1936.08</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="21">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="21">
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
         <v>17.690000000000001</v>
       </c>
-      <c r="R15" s="22">
-        <v>0</v>
-      </c>
-      <c r="S15" s="21">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
+      <c r="R17" s="22">
+        <v>0</v>
+      </c>
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="36">
         <f t="shared" si="1"/>
         <v>17.690000000000001</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U17" s="36">
         <f t="shared" si="2"/>
         <v>17.690000000000001</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V17" s="37">
         <f t="shared" si="3"/>
         <v>1953.77</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>4.056</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>103.42948717948718</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
         <v>413.52</v>
       </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
         <v>2.96</v>
       </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="21">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22">
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22">
         <v>3.03</v>
       </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
         <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U18" s="15">
         <f t="shared" si="2"/>
         <v>5.99</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V18" s="13">
         <f t="shared" si="3"/>
         <v>419.51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B19" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D19" s="32">
         <v>25.466000000000001</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E19" s="34">
         <f t="shared" si="0"/>
         <v>77.880311002905827</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F19" s="35">
         <f>'Initial Buys'!Q98</f>
         <v>1945.52</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G19" s="36">
         <f>'2015'!S14</f>
         <v>9.2799999999999994</v>
       </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
         <v>9.36</v>
       </c>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
         <v>9.5299999999999994</v>
       </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="21">
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
         <v>9.61</v>
       </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>0</v>
-      </c>
-      <c r="R17" s="22">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14">
+      <c r="P19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <v>0</v>
+      </c>
+      <c r="T19" s="36">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U19" s="36">
         <f t="shared" si="2"/>
         <v>37.78</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V19" s="37">
         <f t="shared" si="3"/>
         <v>1983.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+    <row r="20" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>130.34</v>
+      </c>
+      <c r="F20" s="6">
+        <f>'Initial Buys'!H200</f>
+        <v>1303.4000000000001</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0</v>
+      </c>
+      <c r="P20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <f t="shared" si="3"/>
+        <v>1303.4000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D21" s="32">
         <v>23.007000000000001</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E21" s="34">
         <f t="shared" si="0"/>
         <v>43.980527665493106</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F21" s="35">
         <f>'Initial Buys'!T98</f>
         <v>962.5</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G21" s="36">
         <f>'2015'!S15</f>
         <v>11.94</v>
       </c>
-      <c r="H18" s="22">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <v>12.08</v>
       </c>
-      <c r="K18" s="21">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
         <v>12.61</v>
       </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="22">
         <v>12.73</v>
       </c>
-      <c r="Q18" s="21">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="36">
         <f t="shared" si="1"/>
         <v>37.42</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U21" s="36">
         <f t="shared" si="2"/>
         <v>49.36</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V21" s="37">
         <f t="shared" si="3"/>
         <v>1011.86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D22" s="5">
         <v>60.432000000000002</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>36.65855837966641</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F22" s="6">
         <f>'Initial Buys'!W98</f>
         <v>2161.0100000000002</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G22" s="15">
         <f>'2015'!S16</f>
         <v>10.15</v>
       </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
         <v>14.54</v>
       </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
         <v>14.73</v>
       </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
-      <c r="O19" s="21">
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
         <v>14.92</v>
       </c>
-      <c r="P19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0</v>
-      </c>
-      <c r="R19" s="22">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
-        <v>0</v>
-      </c>
-      <c r="T19" s="14">
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
         <f t="shared" si="1"/>
         <v>44.19</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U22" s="15">
         <f t="shared" si="2"/>
         <v>54.34</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V22" s="13">
         <f t="shared" si="3"/>
         <v>2215.3500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D23" s="32">
         <v>34.156999999999996</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E23" s="34">
         <f t="shared" si="0"/>
         <v>51.696577568287616</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F23" s="35">
         <f>'Initial Buys'!Z98</f>
         <v>1757.33</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="21">
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
         <v>8.4700000000000006</v>
       </c>
-      <c r="P20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="36">
         <f t="shared" si="1"/>
         <v>8.4700000000000006</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U23" s="36">
         <f t="shared" si="2"/>
         <v>8.4700000000000006</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V23" s="37">
         <f t="shared" si="3"/>
         <v>1765.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D24" s="5">
         <v>29.777000000000001</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>66.146018739295428</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F24" s="6">
         <f>'Initial Buys'!AC98</f>
         <v>1916.7600000000002</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G24" s="15">
         <f>'2015'!S17</f>
         <v>0</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H24" s="22">
         <v>14.67</v>
       </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
         <v>15.15</v>
       </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
         <v>15.23</v>
       </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="22">
         <v>7.82</v>
       </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="14">
+      <c r="Q24" s="21">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
         <f t="shared" si="1"/>
         <v>52.87</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U24" s="15">
         <f t="shared" si="2"/>
         <v>52.87</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V24" s="13">
         <f t="shared" si="3"/>
         <v>1969.63</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D25" s="32">
         <v>25.503</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E25" s="34">
         <f t="shared" si="0"/>
         <v>79.626710583068657</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F25" s="35">
         <f>'Initial Buys'!B148</f>
         <v>1988.76</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G25" s="36">
         <f>'2015'!S18</f>
         <v>10.18</v>
       </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
         <v>10.3</v>
       </c>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
         <v>10.7</v>
       </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="21">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="22">
         <v>10.78</v>
       </c>
-      <c r="Q22" s="21">
-        <v>0</v>
-      </c>
-      <c r="R22" s="22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <v>0</v>
-      </c>
-      <c r="T22" s="15">
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="36">
         <f t="shared" si="1"/>
         <v>31.78</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U25" s="36">
         <f t="shared" si="2"/>
         <v>41.96</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V25" s="37">
         <f t="shared" si="3"/>
         <v>2030.72</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27">
-        <f>SUM(G2:G22)</f>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27">
+        <f>SUM(G2:G25)</f>
         <v>134.23000000000002</v>
       </c>
-      <c r="H23" s="16">
-        <f>SUM(H2:H22)</f>
+      <c r="H26" s="16">
+        <f>SUM(H2:H25)</f>
         <v>21.3</v>
       </c>
-      <c r="I23" s="27">
-        <f t="shared" ref="I23:U23" si="4">SUM(I2:I22)</f>
+      <c r="I26" s="27">
+        <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
         <v>58.78</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J26" s="16">
         <f t="shared" si="4"/>
         <v>80.88</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K26" s="27">
         <f t="shared" si="4"/>
         <v>29.560000000000002</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L26" s="16">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M26" s="27">
         <f t="shared" si="4"/>
         <v>101.09</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N26" s="16">
         <f t="shared" si="4"/>
         <v>14.530000000000001</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O26" s="27">
         <f t="shared" si="4"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P26" s="16">
         <f t="shared" si="4"/>
         <v>94.43</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q26" s="27">
         <f t="shared" si="4"/>
         <v>35.24</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R26" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S26" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T26" s="27">
         <f t="shared" si="4"/>
         <v>565.21</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U26" s="27">
         <f t="shared" si="4"/>
         <v>699.44</v>
       </c>
-      <c r="V23" s="18">
-        <f>SUM(V2:V22)</f>
-        <v>30095.21</v>
+      <c r="V26" s="18">
+        <f>SUM(V2:V25)</f>
+        <v>34853.810000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4813,31 +5090,31 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4905,7 +5182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4979,7 +5256,7 @@
         <v>1069.8499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5053,7 +5330,7 @@
         <v>1853.59</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -5127,7 +5404,7 @@
         <v>1076.93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
@@ -5149,7 +5426,7 @@
         <v>1013.44</v>
       </c>
       <c r="G5" s="14">
-        <f>'2016'!U5</f>
+        <f>'2016'!U6</f>
         <v>24.810000000000002</v>
       </c>
       <c r="H5" s="22">
@@ -5201,7 +5478,7 @@
         <v>1038.25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5223,7 +5500,7 @@
         <v>1072.4000000000001</v>
       </c>
       <c r="G6" s="15">
-        <f>'2016'!U6</f>
+        <f>'2016'!U7</f>
         <v>60.89</v>
       </c>
       <c r="H6" s="22">
@@ -5275,7 +5552,7 @@
         <v>1133.2900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
@@ -5297,7 +5574,7 @@
         <v>1012.94</v>
       </c>
       <c r="G7" s="14">
-        <f>'2016'!U7</f>
+        <f>'2016'!U8</f>
         <v>25.4</v>
       </c>
       <c r="H7" s="22">
@@ -5349,7 +5626,7 @@
         <v>1038.3400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -5371,7 +5648,7 @@
         <v>920.78</v>
       </c>
       <c r="G8" s="15">
-        <f>'2016'!U8</f>
+        <f>'2016'!U9</f>
         <v>37.699999999999996</v>
       </c>
       <c r="H8" s="22">
@@ -5423,7 +5700,7 @@
         <v>958.48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -5445,7 +5722,7 @@
         <v>997.04</v>
       </c>
       <c r="G9" s="14">
-        <f>'2016'!U9</f>
+        <f>'2016'!U10</f>
         <v>42.4</v>
       </c>
       <c r="H9" s="22">
@@ -5497,7 +5774,7 @@
         <v>1039.44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5519,7 +5796,7 @@
         <v>1027.08</v>
       </c>
       <c r="G10" s="15">
-        <f>'2016'!U10</f>
+        <f>'2016'!U11</f>
         <v>30.86</v>
       </c>
       <c r="H10" s="22">
@@ -5571,7 +5848,7 @@
         <v>1057.9399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>28</v>
       </c>
@@ -5593,7 +5870,7 @@
         <v>989.4</v>
       </c>
       <c r="G11" s="14">
-        <f>'2016'!U11</f>
+        <f>'2016'!U12</f>
         <v>32.72</v>
       </c>
       <c r="H11" s="22">
@@ -5645,7 +5922,7 @@
         <v>1022.12</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -5667,7 +5944,7 @@
         <v>2951.1000000000004</v>
       </c>
       <c r="G12" s="15">
-        <f>'2016'!U12</f>
+        <f>'2016'!U13</f>
         <v>34.380000000000003</v>
       </c>
       <c r="H12" s="22">
@@ -5719,7 +5996,7 @@
         <v>2985.4800000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
@@ -5741,7 +6018,7 @@
         <v>1453.6</v>
       </c>
       <c r="G13" s="14">
-        <f>'2016'!U13</f>
+        <f>'2016'!U14</f>
         <v>30.709999999999997</v>
       </c>
       <c r="H13" s="22">
@@ -5793,7 +6070,7 @@
         <v>1484.31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -5815,7 +6092,7 @@
         <v>978.46</v>
       </c>
       <c r="G14" s="15">
-        <f>'2016'!U14</f>
+        <f>'2016'!U16</f>
         <v>30.74</v>
       </c>
       <c r="H14" s="22">
@@ -5867,7 +6144,7 @@
         <v>1009.2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>30</v>
       </c>
@@ -5889,7 +6166,7 @@
         <v>1936.08</v>
       </c>
       <c r="G15" s="14">
-        <f>'2016'!U15</f>
+        <f>'2016'!U17</f>
         <v>17.690000000000001</v>
       </c>
       <c r="H15" s="22">
@@ -5941,7 +6218,7 @@
         <v>1953.77</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -5963,7 +6240,7 @@
         <v>413.52</v>
       </c>
       <c r="G16" s="15">
-        <f>'2016'!U16</f>
+        <f>'2016'!U18</f>
         <v>5.99</v>
       </c>
       <c r="H16" s="22">
@@ -6015,7 +6292,7 @@
         <v>422.46999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>32</v>
       </c>
@@ -6037,7 +6314,7 @@
         <v>1945.52</v>
       </c>
       <c r="G17" s="14">
-        <f>'2016'!U17</f>
+        <f>'2016'!U19</f>
         <v>37.78</v>
       </c>
       <c r="H17" s="22">
@@ -6089,7 +6366,7 @@
         <v>1983.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -6111,7 +6388,7 @@
         <v>962.5</v>
       </c>
       <c r="G18" s="15">
-        <f>'2016'!U18</f>
+        <f>'2016'!U21</f>
         <v>49.36</v>
       </c>
       <c r="H18" s="22">
@@ -6163,7 +6440,7 @@
         <v>1011.86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
@@ -6185,7 +6462,7 @@
         <v>2161.0100000000002</v>
       </c>
       <c r="G19" s="14">
-        <f>'2016'!U19</f>
+        <f>'2016'!U22</f>
         <v>54.34</v>
       </c>
       <c r="H19" s="22">
@@ -6237,7 +6514,7 @@
         <v>2215.3500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -6259,7 +6536,7 @@
         <v>1757.33</v>
       </c>
       <c r="G20" s="15">
-        <f>'2016'!U20</f>
+        <f>'2016'!U23</f>
         <v>8.4700000000000006</v>
       </c>
       <c r="H20" s="22">
@@ -6311,7 +6588,7 @@
         <v>1765.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>37</v>
       </c>
@@ -6333,7 +6610,7 @@
         <v>1916.7600000000002</v>
       </c>
       <c r="G21" s="14">
-        <f>'2016'!U21</f>
+        <f>'2016'!U24</f>
         <v>52.87</v>
       </c>
       <c r="H21" s="22">
@@ -6385,7 +6662,7 @@
         <v>1969.63</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -6407,7 +6684,7 @@
         <v>1988.76</v>
       </c>
       <c r="G22" s="15">
-        <f>'2016'!U22</f>
+        <f>'2016'!U25</f>
         <v>41.96</v>
       </c>
       <c r="H22" s="22">
@@ -6459,7 +6736,7 @@
         <v>2030.72</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -3141,7 +3141,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,11 +3687,11 @@
         <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>14.324999999999999</v>
+        <v>14.422000000000001</v>
       </c>
       <c r="E8" s="20">
         <f>V8/D8</f>
-        <v>72.484467713787097</v>
+        <v>72.590486756344475</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!Q48</f>
@@ -3732,22 +3732,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="22">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="S8" s="21">
         <v>0</v>
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>25.4</v>
+        <v>33.96</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>25.4</v>
+        <v>33.96</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>1038.3400000000001</v>
+        <v>1046.9000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3909,11 +3909,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="32">
-        <v>18.501999999999999</v>
+        <v>18.646000000000001</v>
       </c>
       <c r="E11" s="34">
         <f t="shared" si="0"/>
-        <v>57.179764349800017</v>
+        <v>57.213343344417027</v>
       </c>
       <c r="F11" s="35">
         <f>'Initial Buys'!Z48</f>
@@ -3954,22 +3954,22 @@
         <v>0</v>
       </c>
       <c r="R11" s="22">
-        <v>0</v>
+        <v>8.86</v>
       </c>
       <c r="S11" s="21">
         <v>0</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="1"/>
-        <v>25.160000000000004</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="U11" s="36">
         <f t="shared" si="2"/>
-        <v>30.86</v>
+        <v>39.72</v>
       </c>
       <c r="V11" s="37">
         <f t="shared" si="3"/>
-        <v>1057.9399999999998</v>
+        <v>1066.8</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -4719,11 +4719,11 @@
         <v>40</v>
       </c>
       <c r="D22" s="5">
-        <v>60.432000000000002</v>
+        <v>61.228999999999999</v>
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>36.65855837966641</v>
+        <v>36.655179735092851</v>
       </c>
       <c r="F22" s="6">
         <f>'Initial Buys'!W98</f>
@@ -4764,22 +4764,22 @@
         <v>0</v>
       </c>
       <c r="R22" s="22">
-        <v>0</v>
+        <v>29.01</v>
       </c>
       <c r="S22" s="21">
         <v>0</v>
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>44.19</v>
+        <v>73.2</v>
       </c>
       <c r="U22" s="15">
         <f t="shared" si="2"/>
-        <v>54.34</v>
+        <v>83.350000000000009</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="3"/>
-        <v>2215.3500000000004</v>
+        <v>2244.36</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -4793,11 +4793,11 @@
         <v>40</v>
       </c>
       <c r="D23" s="32">
-        <v>34.156999999999996</v>
+        <v>34.576000000000001</v>
       </c>
       <c r="E23" s="34">
         <f t="shared" si="0"/>
-        <v>51.696577568287616</v>
+        <v>51.640444238778343</v>
       </c>
       <c r="F23" s="35">
         <f>'Initial Buys'!Z98</f>
@@ -4837,22 +4837,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="22">
-        <v>0</v>
+        <v>19.72</v>
       </c>
       <c r="S23" s="21">
         <v>0</v>
       </c>
       <c r="T23" s="36">
         <f t="shared" si="1"/>
-        <v>8.4700000000000006</v>
+        <v>28.189999999999998</v>
       </c>
       <c r="U23" s="36">
         <f t="shared" si="2"/>
-        <v>8.4700000000000006</v>
+        <v>28.189999999999998</v>
       </c>
       <c r="V23" s="37">
         <f t="shared" si="3"/>
-        <v>1765.8</v>
+        <v>1785.52</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="R26" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="S26" s="27">
         <f t="shared" si="4"/>
@@ -5064,15 +5064,15 @@
       </c>
       <c r="T26" s="27">
         <f t="shared" si="4"/>
-        <v>565.21</v>
+        <v>631.36</v>
       </c>
       <c r="U26" s="27">
         <f t="shared" si="4"/>
-        <v>699.44</v>
+        <v>765.59</v>
       </c>
       <c r="V26" s="18">
         <f>SUM(V2:V25)</f>
-        <v>34853.810000000005</v>
+        <v>34919.960000000006</v>
       </c>
     </row>
   </sheetData>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>72.484467713787097</v>
+        <v>73.082024432809789</v>
       </c>
       <c r="F7" s="8">
         <f>'Initial Buys'!Q48</f>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="G7" s="14">
         <f>'2016'!U8</f>
-        <v>25.4</v>
+        <v>33.96</v>
       </c>
       <c r="H7" s="22">
         <v>0</v>
@@ -5619,11 +5619,11 @@
       </c>
       <c r="U7" s="14">
         <f t="shared" si="2"/>
-        <v>25.4</v>
+        <v>33.96</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" si="3"/>
-        <v>1038.3400000000001</v>
+        <v>1046.9000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>57.179764349800017</v>
+        <v>57.658631499297371</v>
       </c>
       <c r="F10" s="6">
         <f>'Initial Buys'!Z48</f>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="G10" s="15">
         <f>'2016'!U11</f>
-        <v>30.86</v>
+        <v>39.72</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
@@ -5841,11 +5841,11 @@
       </c>
       <c r="U10" s="15">
         <f t="shared" si="2"/>
-        <v>30.86</v>
+        <v>39.72</v>
       </c>
       <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>1057.9399999999998</v>
+        <v>1066.8</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
-        <v>36.65855837966641</v>
+        <v>37.13860206513106</v>
       </c>
       <c r="F19" s="8">
         <f>'Initial Buys'!W98</f>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="G19" s="14">
         <f>'2016'!U22</f>
-        <v>54.34</v>
+        <v>83.350000000000009</v>
       </c>
       <c r="H19" s="22">
         <v>0</v>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="U19" s="14">
         <f t="shared" si="2"/>
-        <v>54.34</v>
+        <v>83.350000000000009</v>
       </c>
       <c r="V19" s="12">
         <f t="shared" si="3"/>
-        <v>2215.3500000000004</v>
+        <v>2244.36</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>51.696577568287616</v>
+        <v>52.273911643294205</v>
       </c>
       <c r="F20" s="6">
         <f>'Initial Buys'!Z98</f>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="G20" s="15">
         <f>'2016'!U23</f>
-        <v>8.4700000000000006</v>
+        <v>28.189999999999998</v>
       </c>
       <c r="H20" s="22">
         <v>0</v>
@@ -6581,11 +6581,11 @@
       </c>
       <c r="U20" s="15">
         <f t="shared" si="2"/>
-        <v>8.4700000000000006</v>
+        <v>28.189999999999998</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>1765.8</v>
+        <v>1785.52</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>699.44</v>
+        <v>765.59</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>724.35000000000014</v>
+        <v>790.50000000000011</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30120.120000000003</v>
+        <v>30186.270000000004</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -499,6 +499,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -534,6 +551,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3141,7 +3175,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,11 +3573,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="5">
-        <v>16.358000000000001</v>
+        <v>16.454000000000001</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>63.470473162978358</v>
+        <v>63.487297921478067</v>
       </c>
       <c r="F6" s="6">
         <f>'Initial Buys'!K48</f>
@@ -3584,22 +3618,22 @@
         <v>0</v>
       </c>
       <c r="R6" s="22">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="S6" s="21">
         <v>0</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" si="1"/>
-        <v>18.729999999999997</v>
+        <v>25.099999999999998</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="2"/>
-        <v>24.810000000000002</v>
+        <v>31.180000000000003</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>1038.25</v>
+        <v>1044.6200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4498,11 +4532,11 @@
         <v>6</v>
       </c>
       <c r="D19" s="32">
-        <v>25.466000000000001</v>
+        <v>25.670999999999999</v>
       </c>
       <c r="E19" s="34">
         <f t="shared" si="0"/>
-        <v>77.880311002905827</v>
+        <v>77.92255852907951</v>
       </c>
       <c r="F19" s="35">
         <f>'Initial Buys'!Q98</f>
@@ -4543,22 +4577,22 @@
         <v>0</v>
       </c>
       <c r="R19" s="22">
-        <v>0</v>
+        <v>17.05</v>
       </c>
       <c r="S19" s="21">
         <v>0</v>
       </c>
       <c r="T19" s="36">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>45.55</v>
       </c>
       <c r="U19" s="36">
         <f t="shared" si="2"/>
-        <v>37.78</v>
+        <v>54.83</v>
       </c>
       <c r="V19" s="37">
         <f t="shared" si="3"/>
-        <v>1983.3</v>
+        <v>2000.35</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -5056,7 +5090,7 @@
       </c>
       <c r="R26" s="16">
         <f t="shared" si="4"/>
-        <v>66.150000000000006</v>
+        <v>89.570000000000007</v>
       </c>
       <c r="S26" s="27">
         <f t="shared" si="4"/>
@@ -5064,15 +5098,15 @@
       </c>
       <c r="T26" s="27">
         <f t="shared" si="4"/>
-        <v>631.36</v>
+        <v>654.78000000000009</v>
       </c>
       <c r="U26" s="27">
         <f t="shared" si="4"/>
-        <v>765.59</v>
+        <v>789.0100000000001</v>
       </c>
       <c r="V26" s="18">
         <f>SUM(V2:V25)</f>
-        <v>34919.960000000006</v>
+        <v>34943.380000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +5453,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>63.470473162978358</v>
+        <v>63.859885071524644</v>
       </c>
       <c r="F5" s="8">
         <f>'Initial Buys'!K48</f>
@@ -5427,7 +5461,7 @@
       </c>
       <c r="G5" s="14">
         <f>'2016'!U6</f>
-        <v>24.810000000000002</v>
+        <v>31.180000000000003</v>
       </c>
       <c r="H5" s="22">
         <v>0</v>
@@ -5471,11 +5505,11 @@
       </c>
       <c r="U5" s="14">
         <f t="shared" si="2"/>
-        <v>24.810000000000002</v>
+        <v>31.180000000000003</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="3"/>
-        <v>1038.25</v>
+        <v>1044.6200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -6307,7 +6341,7 @@
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>77.880311002905827</v>
+        <v>78.549831147412235</v>
       </c>
       <c r="F17" s="8">
         <f>'Initial Buys'!Q98</f>
@@ -6315,7 +6349,7 @@
       </c>
       <c r="G17" s="14">
         <f>'2016'!U19</f>
-        <v>37.78</v>
+        <v>54.83</v>
       </c>
       <c r="H17" s="22">
         <v>0</v>
@@ -6359,11 +6393,11 @@
       </c>
       <c r="U17" s="14">
         <f t="shared" si="2"/>
-        <v>37.78</v>
+        <v>54.83</v>
       </c>
       <c r="V17" s="12">
         <f t="shared" si="3"/>
-        <v>1983.3</v>
+        <v>2000.35</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -6745,7 +6779,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>765.59</v>
+        <v>789.0100000000001</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6801,11 +6835,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>790.50000000000011</v>
+        <v>813.92</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30186.270000000004</v>
+        <v>30209.690000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,11 +3426,11 @@
         <v>8</v>
       </c>
       <c r="D4" s="5">
-        <v>16.690000000000001</v>
+        <v>16.827999999999999</v>
       </c>
       <c r="E4" s="20">
         <f>V4/D4</f>
-        <v>64.525464349910123</v>
+        <v>64.75932968861423</v>
       </c>
       <c r="F4" s="6">
         <f>'Initial Buys'!H48</f>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R4" s="22">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="S4" s="21">
         <v>0</v>
       </c>
       <c r="T4" s="15">
         <f t="shared" si="1"/>
-        <v>37.730000000000004</v>
+        <v>50.570000000000007</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" si="2"/>
-        <v>50.05</v>
+        <v>62.89</v>
       </c>
       <c r="V4" s="13">
         <f t="shared" si="3"/>
-        <v>1076.93</v>
+        <v>1089.7700000000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="R26" s="16">
         <f t="shared" si="4"/>
-        <v>89.570000000000007</v>
+        <v>102.41000000000001</v>
       </c>
       <c r="S26" s="27">
         <f t="shared" si="4"/>
@@ -5098,15 +5098,15 @@
       </c>
       <c r="T26" s="27">
         <f t="shared" si="4"/>
-        <v>654.78000000000009</v>
+        <v>667.62</v>
       </c>
       <c r="U26" s="27">
         <f t="shared" si="4"/>
-        <v>789.0100000000001</v>
+        <v>801.85</v>
       </c>
       <c r="V26" s="18">
         <f>SUM(V2:V25)</f>
-        <v>34943.380000000005</v>
+        <v>34956.22</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>64.525464349910123</v>
+        <v>65.294787297783117</v>
       </c>
       <c r="F4" s="6">
         <f>'Initial Buys'!H48</f>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G4" s="15">
         <f>'2016'!U4</f>
-        <v>50.05</v>
+        <v>62.89</v>
       </c>
       <c r="H4" s="22">
         <v>0</v>
@@ -5431,11 +5431,11 @@
       </c>
       <c r="U4" s="15">
         <f t="shared" si="2"/>
-        <v>50.05</v>
+        <v>62.89</v>
       </c>
       <c r="V4" s="13">
         <f t="shared" si="3"/>
-        <v>1076.93</v>
+        <v>1089.7700000000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>789.0100000000001</v>
+        <v>801.85</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6835,11 +6835,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>813.92</v>
+        <v>826.7600000000001</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30209.690000000002</v>
+        <v>30222.530000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -499,23 +499,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -551,23 +534,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3175,7 +3141,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,11 +3245,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>24.728000000000002</v>
+        <v>24.89</v>
       </c>
       <c r="E2" s="20">
         <f t="shared" ref="E2:E25" si="0">V2/D2</f>
-        <v>42.377062439340008</v>
+        <v>42.39855363599839</v>
       </c>
       <c r="F2" s="6">
         <f>'Initial Buys'!B48</f>
@@ -3327,19 +3293,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T2" s="15">
         <f t="shared" ref="T2:T25" si="1">SUM(H2:S2)</f>
-        <v>21.909999999999997</v>
+        <v>29.309999999999995</v>
       </c>
       <c r="U2" s="15">
         <f t="shared" ref="U2:U25" si="2">SUM(G2:S2)</f>
-        <v>28.619999999999997</v>
+        <v>36.019999999999996</v>
       </c>
       <c r="V2" s="13">
         <f t="shared" ref="V2:V25" si="3">SUM(F2, U2)</f>
-        <v>1047.8999999999999</v>
+        <v>1055.3</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3500,11 +3466,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="32">
-        <v>43</v>
+        <v>43.176000000000002</v>
       </c>
       <c r="E5" s="34">
         <f>V5/D5</f>
-        <v>47.5</v>
+        <v>47.483092458773392</v>
       </c>
       <c r="F5" s="35">
         <f>'Initial Buys'!B200</f>
@@ -3547,19 +3513,19 @@
         <v>0</v>
       </c>
       <c r="S5" s="21">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="T5" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="U5" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="V5" s="37">
         <f t="shared" si="3"/>
-        <v>2042.5</v>
+        <v>2050.13</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4091,11 +4057,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="32">
-        <v>27.31</v>
+        <v>27.507999999999999</v>
       </c>
       <c r="E13" s="34">
         <f t="shared" si="0"/>
-        <v>109.31819846210182</v>
+        <v>109.32383306674423</v>
       </c>
       <c r="F13" s="35">
         <f>'Initial Buys'!B98</f>
@@ -4139,19 +4105,19 @@
         <v>0</v>
       </c>
       <c r="S13" s="21">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="1"/>
-        <v>26.18</v>
+        <v>47.980000000000004</v>
       </c>
       <c r="U13" s="36">
         <f t="shared" si="2"/>
-        <v>34.380000000000003</v>
+        <v>56.180000000000007</v>
       </c>
       <c r="V13" s="37">
         <f t="shared" si="3"/>
-        <v>2985.4800000000005</v>
+        <v>3007.28</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4606,11 +4572,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="5">
-        <v>10</v>
+        <v>10.06</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>130.34</v>
+        <v>130.30815109343936</v>
       </c>
       <c r="F20" s="6">
         <f>'Initial Buys'!H200</f>
@@ -4653,19 +4619,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="T20" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U20" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>1303.4000000000001</v>
+        <v>1310.9</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -4679,11 +4645,11 @@
         <v>39</v>
       </c>
       <c r="D21" s="32">
-        <v>23.007000000000001</v>
+        <v>23.279</v>
       </c>
       <c r="E21" s="34">
         <f t="shared" si="0"/>
-        <v>43.980527665493106</v>
+        <v>44.019072984234718</v>
       </c>
       <c r="F21" s="35">
         <f>'Initial Buys'!T98</f>
@@ -4727,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="21">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="T21" s="36">
         <f t="shared" si="1"/>
-        <v>37.42</v>
+        <v>50.28</v>
       </c>
       <c r="U21" s="36">
         <f t="shared" si="2"/>
-        <v>49.36</v>
+        <v>62.22</v>
       </c>
       <c r="V21" s="37">
         <f t="shared" si="3"/>
-        <v>1011.86</v>
+        <v>1024.72</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -5094,19 +5060,19 @@
       </c>
       <c r="S26" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57.19</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="4"/>
-        <v>667.62</v>
+        <v>724.81000000000006</v>
       </c>
       <c r="U26" s="27">
         <f t="shared" si="4"/>
-        <v>801.85</v>
+        <v>859.0400000000003</v>
       </c>
       <c r="V26" s="18">
         <f>SUM(V2:V25)</f>
-        <v>34956.22</v>
+        <v>35013.410000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5197,7 @@
       </c>
       <c r="E2" s="20">
         <f t="shared" ref="E2:E22" si="0">V2/D2</f>
-        <v>43.264720155289545</v>
+        <v>43.563976059527661</v>
       </c>
       <c r="F2" s="6">
         <f>'Initial Buys'!B48</f>
@@ -5239,7 +5205,7 @@
       </c>
       <c r="G2" s="15">
         <f>'2016'!U2</f>
-        <v>28.619999999999997</v>
+        <v>36.019999999999996</v>
       </c>
       <c r="H2" s="22">
         <v>0</v>
@@ -5283,11 +5249,11 @@
       </c>
       <c r="U2" s="15">
         <f t="shared" ref="U2:U22" si="2">SUM(G2:S2)</f>
-        <v>50.569999999999993</v>
+        <v>57.969999999999992</v>
       </c>
       <c r="V2" s="13">
         <f t="shared" ref="V2:V22" si="3">SUM(F2, U2)</f>
-        <v>1069.8499999999999</v>
+        <v>1077.25</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5971,7 +5937,7 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>109.31819846210182</v>
+        <v>110.11644086415234</v>
       </c>
       <c r="F12" s="6">
         <f>'Initial Buys'!B98</f>
@@ -5979,7 +5945,7 @@
       </c>
       <c r="G12" s="15">
         <f>'2016'!U13</f>
-        <v>34.380000000000003</v>
+        <v>56.180000000000007</v>
       </c>
       <c r="H12" s="22">
         <v>0</v>
@@ -6023,11 +5989,11 @@
       </c>
       <c r="U12" s="15">
         <f t="shared" si="2"/>
-        <v>34.380000000000003</v>
+        <v>56.180000000000007</v>
       </c>
       <c r="V12" s="13">
         <f t="shared" si="3"/>
-        <v>2985.4800000000005</v>
+        <v>3007.28</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -6415,7 +6381,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>43.980527665493106</v>
+        <v>44.539487981918548</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!T98</f>
@@ -6423,7 +6389,7 @@
       </c>
       <c r="G18" s="15">
         <f>'2016'!U21</f>
-        <v>49.36</v>
+        <v>62.22</v>
       </c>
       <c r="H18" s="22">
         <v>0</v>
@@ -6467,11 +6433,11 @@
       </c>
       <c r="U18" s="15">
         <f t="shared" si="2"/>
-        <v>49.36</v>
+        <v>62.22</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>1011.86</v>
+        <v>1024.72</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -6779,7 +6745,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>801.85</v>
+        <v>843.9100000000002</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6835,11 +6801,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>826.7600000000001</v>
+        <v>868.82000000000028</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30222.530000000002</v>
+        <v>30264.590000000004</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="70">
   <si>
     <t>Symbols</t>
   </si>
@@ -234,12 +234,15 @@
   </si>
   <si>
     <t>J M Smucker Co</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -499,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -534,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,8 +726,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="V86" sqref="V86"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +744,7 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1223,6 +1260,12 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
+      <c r="M52" s="4">
+        <v>42724</v>
+      </c>
+      <c r="N52">
+        <v>732.55</v>
+      </c>
       <c r="P52" s="4">
         <v>42612</v>
       </c>
@@ -1603,7 +1646,7 @@
       </c>
       <c r="N98" s="17">
         <f>SUM(N51:N97)</f>
-        <v>413.52</v>
+        <v>1146.07</v>
       </c>
       <c r="Q98" s="17">
         <f>SUM(Q51:Q97)</f>
@@ -3141,7 +3184,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3351,7 @@
         <v>1055.3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
@@ -3613,11 +3656,11 @@
         <v>18</v>
       </c>
       <c r="D7" s="32">
-        <v>14.637</v>
+        <v>14.772</v>
       </c>
       <c r="E7" s="34">
         <f t="shared" si="0"/>
-        <v>77.426385188221644</v>
+        <v>77.789060384511245</v>
       </c>
       <c r="F7" s="35">
         <f>'Initial Buys'!N48</f>
@@ -3661,19 +3704,19 @@
         <v>0</v>
       </c>
       <c r="S7" s="21">
-        <v>0</v>
+        <v>15.81</v>
       </c>
       <c r="T7" s="36">
         <f t="shared" si="1"/>
-        <v>45.94</v>
+        <v>61.75</v>
       </c>
       <c r="U7" s="36">
         <f t="shared" si="2"/>
-        <v>60.89</v>
+        <v>76.7</v>
       </c>
       <c r="V7" s="37">
         <f t="shared" si="3"/>
-        <v>1133.2900000000002</v>
+        <v>1149.1000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3761,11 +3804,11 @@
         <v>39</v>
       </c>
       <c r="D9" s="32">
-        <v>14.522</v>
+        <v>14.654999999999999</v>
       </c>
       <c r="E9" s="34">
         <f t="shared" si="0"/>
-        <v>66.001928109075891</v>
+        <v>66.064824292050488</v>
       </c>
       <c r="F9" s="35">
         <f>'Initial Buys'!T48</f>
@@ -3809,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="21">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T9" s="36">
         <f t="shared" si="1"/>
-        <v>28.619999999999997</v>
+        <v>38.319999999999993</v>
       </c>
       <c r="U9" s="36">
         <f t="shared" si="2"/>
-        <v>37.699999999999996</v>
+        <v>47.399999999999991</v>
       </c>
       <c r="V9" s="37">
         <f t="shared" si="3"/>
-        <v>958.48</v>
+        <v>968.18</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3835,11 +3878,11 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
-        <v>22.847000000000001</v>
+        <v>23.04</v>
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>45.495688711865888</v>
+        <v>45.59071180555555</v>
       </c>
       <c r="F10" s="6">
         <f>'Initial Buys'!W48</f>
@@ -3883,19 +3926,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="21">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>31.95</v>
+        <v>42.92</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="2"/>
-        <v>42.4</v>
+        <v>53.37</v>
       </c>
       <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>1039.44</v>
+        <v>1050.4099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4131,11 +4174,11 @@
         <v>6</v>
       </c>
       <c r="D14" s="5">
-        <v>36.692999999999998</v>
+        <v>37.002000000000002</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>40.452129834028291</v>
+        <v>40.461326414788381</v>
       </c>
       <c r="F14" s="6">
         <f>'Initial Buys'!E98</f>
@@ -4179,19 +4222,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="21">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="1"/>
-        <v>23.45</v>
+        <v>36.29</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" si="2"/>
-        <v>30.709999999999997</v>
+        <v>43.55</v>
       </c>
       <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>1484.31</v>
+        <v>1497.1499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -4278,11 +4321,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>7.1879999999999997</v>
+        <v>7.2329999999999997</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>140.40066777963273</v>
+        <v>140.63044379925344</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!H98</f>
@@ -4326,19 +4369,19 @@
         <v>0</v>
       </c>
       <c r="S16" s="21">
-        <v>0</v>
+        <v>7.98</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>23.56</v>
+        <v>31.54</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="2"/>
-        <v>30.74</v>
+        <v>38.72</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>1009.2</v>
+        <v>1017.1800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -4419,21 +4462,21 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="5">
-        <v>4.056</v>
+        <v>11.055999999999999</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>103.42948717948718</v>
+        <v>104.20224312590449</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
-        <v>413.52</v>
+        <v>1146.07</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
@@ -4484,7 +4527,7 @@
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>419.51</v>
+        <v>1152.06</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -4940,11 +4983,11 @@
         <v>18</v>
       </c>
       <c r="D25" s="32">
-        <v>25.503</v>
+        <v>25.713000000000001</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" si="0"/>
-        <v>79.626710583068657</v>
+        <v>79.720374907634266</v>
       </c>
       <c r="F25" s="35">
         <f>'Initial Buys'!B148</f>
@@ -4988,19 +5031,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="21">
-        <v>0</v>
+        <v>19.13</v>
       </c>
       <c r="T25" s="36">
         <f t="shared" si="1"/>
-        <v>31.78</v>
+        <v>50.91</v>
       </c>
       <c r="U25" s="36">
         <f t="shared" si="2"/>
-        <v>41.96</v>
+        <v>61.09</v>
       </c>
       <c r="V25" s="37">
         <f t="shared" si="3"/>
-        <v>2030.72</v>
+        <v>2049.85</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -5060,19 +5103,19 @@
       </c>
       <c r="S26" s="27">
         <f t="shared" si="4"/>
-        <v>57.19</v>
+        <v>133.62</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="4"/>
-        <v>724.81000000000006</v>
+        <v>801.24</v>
       </c>
       <c r="U26" s="27">
         <f t="shared" si="4"/>
-        <v>859.0400000000003</v>
+        <v>935.47000000000025</v>
       </c>
       <c r="V26" s="18">
         <f>SUM(V2:V25)</f>
-        <v>35013.410000000003</v>
+        <v>35822.390000000007</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5536,7 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>78.255075265847282</v>
+        <v>79.346775307278008</v>
       </c>
       <c r="F6" s="6">
         <f>'Initial Buys'!N48</f>
@@ -5501,7 +5544,7 @@
       </c>
       <c r="G6" s="15">
         <f>'2016'!U7</f>
-        <v>60.89</v>
+        <v>76.7</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
@@ -5545,11 +5588,11 @@
       </c>
       <c r="U6" s="15">
         <f t="shared" si="2"/>
-        <v>60.89</v>
+        <v>76.7</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>1133.2900000000002</v>
+        <v>1149.1000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -5641,7 +5684,7 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>66.588856467972761</v>
+        <v>67.262748367375295</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!T48</f>
@@ -5649,7 +5692,7 @@
       </c>
       <c r="G8" s="15">
         <f>'2016'!U9</f>
-        <v>37.699999999999996</v>
+        <v>47.399999999999991</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
@@ -5693,11 +5736,11 @@
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>37.699999999999996</v>
+        <v>47.399999999999991</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>958.48</v>
+        <v>968.18</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -5715,7 +5758,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>45.495688711865888</v>
+        <v>45.975839278679906</v>
       </c>
       <c r="F9" s="8">
         <f>'Initial Buys'!W48</f>
@@ -5723,7 +5766,7 @@
       </c>
       <c r="G9" s="14">
         <f>'2016'!U10</f>
-        <v>42.4</v>
+        <v>53.37</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
@@ -5767,11 +5810,11 @@
       </c>
       <c r="U9" s="14">
         <f t="shared" si="2"/>
-        <v>42.4</v>
+        <v>53.37</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" si="3"/>
-        <v>1039.44</v>
+        <v>1050.4099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -6011,7 +6054,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>65.954676738502556</v>
+        <v>66.525216618529214</v>
       </c>
       <c r="F13" s="8">
         <f>'Initial Buys'!E98</f>
@@ -6019,7 +6062,7 @@
       </c>
       <c r="G13" s="14">
         <f>'2016'!U14</f>
-        <v>30.709999999999997</v>
+        <v>43.55</v>
       </c>
       <c r="H13" s="22">
         <v>0</v>
@@ -6063,11 +6106,11 @@
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>30.709999999999997</v>
+        <v>43.55</v>
       </c>
       <c r="V13" s="12">
         <f t="shared" si="3"/>
-        <v>1484.31</v>
+        <v>1497.1499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -6085,7 +6128,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>141.28517429651407</v>
+        <v>142.40235195296094</v>
       </c>
       <c r="F14" s="6">
         <f>'Initial Buys'!H98</f>
@@ -6093,7 +6136,7 @@
       </c>
       <c r="G14" s="15">
         <f>'2016'!U16</f>
-        <v>30.74</v>
+        <v>38.72</v>
       </c>
       <c r="H14" s="22">
         <v>0</v>
@@ -6137,11 +6180,11 @@
       </c>
       <c r="U14" s="15">
         <f t="shared" si="2"/>
-        <v>30.74</v>
+        <v>38.72</v>
       </c>
       <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>1009.2</v>
+        <v>1017.1800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -6233,11 +6276,11 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>104.88331678252234</v>
+        <v>286.74776564051643</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!N98</f>
-        <v>413.52</v>
+        <v>1146.07</v>
       </c>
       <c r="G16" s="15">
         <f>'2016'!U18</f>
@@ -6289,7 +6332,7 @@
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>422.46999999999997</v>
+        <v>1155.02</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -6677,7 +6720,7 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>79.626710583068657</v>
+        <v>80.37681841351997</v>
       </c>
       <c r="F22" s="6">
         <f>'Initial Buys'!B148</f>
@@ -6685,7 +6728,7 @@
       </c>
       <c r="G22" s="15">
         <f>'2016'!U25</f>
-        <v>41.96</v>
+        <v>61.09</v>
       </c>
       <c r="H22" s="22">
         <v>0</v>
@@ -6729,11 +6772,11 @@
       </c>
       <c r="U22" s="15">
         <f t="shared" si="2"/>
-        <v>41.96</v>
+        <v>61.09</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="3"/>
-        <v>2030.72</v>
+        <v>2049.85</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -6745,7 +6788,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27">
         <f>SUM(G2:G22)</f>
-        <v>843.9100000000002</v>
+        <v>920.34000000000037</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H2:H22)</f>
@@ -6801,11 +6844,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="4"/>
-        <v>868.82000000000028</v>
+        <v>945.25000000000023</v>
       </c>
       <c r="V23" s="18">
         <f>SUM(V2:V22)</f>
-        <v>30264.590000000004</v>
+        <v>31073.570000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -502,23 +502,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -554,23 +537,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3187,7 +3153,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5081,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,7 +6377,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>104.20224312590449</v>
+        <v>104.47358900144718</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
@@ -6422,7 +6388,7 @@
         <v>5.99</v>
       </c>
       <c r="H18" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="20">
         <v>0</v>
@@ -6459,15 +6425,15 @@
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18" s="15">
         <f t="shared" si="2"/>
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>1152.06</v>
+        <v>1155.06</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -7004,7 +6970,7 @@
       </c>
       <c r="H26" s="40">
         <f>SUM(H2:H25)</f>
-        <v>21.64</v>
+        <v>24.64</v>
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
@@ -7052,15 +7018,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>21.64</v>
+        <v>24.64</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>957.11000000000024</v>
+        <v>960.11000000000024</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35844.030000000006</v>
+        <v>35847.030000000006</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5081,7 +5081,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="E3" s="18">
         <f>V3/D3</f>
-        <v>50.030658347676422</v>
+        <v>50.030927280550777</v>
       </c>
       <c r="F3" s="8">
         <f>'Initial Buys'!E48</f>
@@ -5278,7 +5278,7 @@
         <v>1.7</v>
       </c>
       <c r="H3" s="21">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="I3" s="20">
         <v>0</v>
@@ -5315,15 +5315,15 @@
       </c>
       <c r="T3" s="14">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="2"/>
-        <v>8.4499999999999993</v>
+        <v>8.4599999999999991</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="3"/>
-        <v>1860.34</v>
+        <v>1860.35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>104.47358900144718</v>
+        <v>104.47811143270623</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
@@ -6388,7 +6388,7 @@
         <v>5.99</v>
       </c>
       <c r="H18" s="21">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I18" s="20">
         <v>0</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U18" s="15">
         <f t="shared" si="2"/>
-        <v>8.99</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>1155.06</v>
+        <v>1155.1099999999999</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="H26" s="40">
         <f>SUM(H2:H25)</f>
-        <v>24.64</v>
+        <v>24.7</v>
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
@@ -7018,15 +7018,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>24.64</v>
+        <v>24.7</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>960.11000000000024</v>
+        <v>960.17000000000019</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35847.030000000006</v>
+        <v>35847.090000000004</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="83">
   <si>
     <t>Symbols</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Caterpillar</t>
   </si>
   <si>
-    <t>2017 Dividends</t>
-  </si>
-  <si>
     <t>sold</t>
   </si>
   <si>
@@ -234,12 +231,57 @@
   </si>
   <si>
     <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Year Dividends</t>
+  </si>
+  <si>
+    <t>All Time Dividends</t>
+  </si>
+  <si>
+    <t>Prev All Time Dividends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -361,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +451,9 @@
     <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,6 +547,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -537,6 +599,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,7 +905,7 @@
         <v>1019.28</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4">
         <v>42562</v>
@@ -835,7 +914,7 @@
         <v>490.55</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4">
         <v>42275</v>
@@ -844,7 +923,7 @@
         <v>1026.8800000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4">
         <v>42278</v>
@@ -853,7 +932,7 @@
         <v>1013.44</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4">
         <v>42244</v>
@@ -862,7 +941,7 @@
         <v>1072.4000000000001</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4">
         <v>42278</v>
@@ -871,7 +950,7 @@
         <v>1012.94</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" s="4">
         <v>42278</v>
@@ -880,7 +959,7 @@
         <v>920.78</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" s="4">
         <v>42265</v>
@@ -889,7 +968,7 @@
         <v>997.04</v>
       </c>
       <c r="X2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="4">
         <v>42275</v>
@@ -898,7 +977,7 @@
         <v>1027.08</v>
       </c>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="4">
         <v>42272</v>
@@ -907,7 +986,7 @@
         <v>989.4</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="16"/>
@@ -1114,7 +1193,7 @@
         <v>1040.3800000000001</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4">
         <v>42268</v>
@@ -1123,7 +1202,7 @@
         <v>863.92</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="4">
         <v>42278</v>
@@ -1132,7 +1211,7 @@
         <v>978.46</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J51" s="4">
         <v>42545</v>
@@ -1141,7 +1220,7 @@
         <v>944.58</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="4">
         <v>42492</v>
@@ -1150,7 +1229,7 @@
         <v>413.52</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" s="4">
         <v>42265</v>
@@ -1159,7 +1238,7 @@
         <v>979.72</v>
       </c>
       <c r="R51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S51" s="4">
         <v>42320</v>
@@ -1168,7 +1247,7 @@
         <v>962.5</v>
       </c>
       <c r="U51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V51" s="4">
         <v>42265</v>
@@ -1177,7 +1256,7 @@
         <v>976.2</v>
       </c>
       <c r="X51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y51" s="4">
         <v>42492</v>
@@ -1186,7 +1265,7 @@
         <v>767.43</v>
       </c>
       <c r="AA51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB51" s="4">
         <v>42278</v>
@@ -1195,7 +1274,7 @@
         <v>1023.2</v>
       </c>
       <c r="AD51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -1206,7 +1285,7 @@
         <v>1910.72</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>42629</v>
@@ -1215,7 +1294,7 @@
         <v>589.67999999999995</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J52" s="4">
         <v>42612</v>
@@ -1224,7 +1303,7 @@
         <v>991.5</v>
       </c>
       <c r="L52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M52" s="4">
         <v>42724</v>
@@ -1257,7 +1336,7 @@
         <v>864.39</v>
       </c>
       <c r="AD52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -1273,7 +1352,7 @@
         <v>-969.03</v>
       </c>
       <c r="AD53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
@@ -1289,7 +1368,7 @@
         <v>998.2</v>
       </c>
       <c r="AD54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -1651,7 +1730,7 @@
         <v>1023.68</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
@@ -1662,7 +1741,7 @@
         <v>965.08</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
@@ -1811,19 +1890,19 @@
         <v>12</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H150" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3153,7 +3232,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,10 +3548,10 @@
     </row>
     <row r="5" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>6</v>
@@ -4198,10 +4277,10 @@
     </row>
     <row r="15" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>6</v>
@@ -4418,7 +4497,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -4560,10 +4639,10 @@
     </row>
     <row r="20" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -5081,7 +5160,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5185,7 @@
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5130,49 +5209,49 @@
         <v>11</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="11">
-        <v>42370</v>
-      </c>
-      <c r="I1" s="11">
-        <v>42401</v>
-      </c>
-      <c r="J1" s="11">
-        <v>42430</v>
-      </c>
-      <c r="K1" s="11">
-        <v>42461</v>
-      </c>
-      <c r="L1" s="11">
-        <v>42491</v>
-      </c>
-      <c r="M1" s="11">
-        <v>42522</v>
-      </c>
-      <c r="N1" s="11">
-        <v>42552</v>
-      </c>
-      <c r="O1" s="11">
-        <v>42583</v>
-      </c>
-      <c r="P1" s="11">
-        <v>42614</v>
-      </c>
-      <c r="Q1" s="11">
-        <v>42644</v>
-      </c>
-      <c r="R1" s="11">
-        <v>42675</v>
-      </c>
-      <c r="S1" s="11">
-        <v>42705</v>
+        <v>82</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>5</v>
@@ -5191,7 +5270,7 @@
       <c r="D2" s="5">
         <v>24.89</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="41">
         <f t="shared" ref="E2:E25" si="0">V2/D2</f>
         <v>42.39855363599839</v>
       </c>
@@ -5265,7 +5344,7 @@
       <c r="D3" s="24">
         <v>37.183999999999997</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="42">
         <f>V3/D3</f>
         <v>50.030927280550777</v>
       </c>
@@ -5339,7 +5418,7 @@
       <c r="D4" s="5">
         <v>16.827999999999999</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="41">
         <f>V4/D4</f>
         <v>64.75932968861423</v>
       </c>
@@ -5402,10 +5481,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>6</v>
@@ -5413,7 +5492,7 @@
       <c r="D5" s="30">
         <v>43.176000000000002</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="43">
         <f>V5/D5</f>
         <v>47.483092458773392</v>
       </c>
@@ -5487,7 +5566,7 @@
       <c r="D6" s="5">
         <v>16.454000000000001</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
         <v>63.487297921478067</v>
       </c>
@@ -5561,7 +5640,7 @@
       <c r="D7" s="30">
         <v>14.772</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>77.789060384511245</v>
       </c>
@@ -5635,7 +5714,7 @@
       <c r="D8" s="5">
         <v>14.422000000000001</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="41">
         <f>V8/D8</f>
         <v>72.590486756344475</v>
       </c>
@@ -5709,7 +5788,7 @@
       <c r="D9" s="30">
         <v>14.654999999999999</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="43">
         <f t="shared" si="0"/>
         <v>66.064824292050488</v>
       </c>
@@ -5783,7 +5862,7 @@
       <c r="D10" s="5">
         <v>23.04</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
         <v>45.59071180555555</v>
       </c>
@@ -5857,7 +5936,7 @@
       <c r="D11" s="30">
         <v>18.646000000000001</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>57.213343344417027</v>
       </c>
@@ -5929,11 +6008,11 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>12.327</v>
-      </c>
-      <c r="E12" s="19">
+        <v>12.393000000000001</v>
+      </c>
+      <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>82.91717368378356</v>
+        <v>83.121923666585957</v>
       </c>
       <c r="F12" s="6">
         <f>'Initial Buys'!AC48</f>
@@ -5944,7 +6023,7 @@
         <v>32.72</v>
       </c>
       <c r="H12" s="21">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="I12" s="20">
         <v>0</v>
@@ -5981,15 +6060,15 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" si="2"/>
-        <v>32.72</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="V12" s="13">
         <f t="shared" si="3"/>
-        <v>1022.12</v>
+        <v>1030.1299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -6005,7 +6084,7 @@
       <c r="D13" s="30">
         <v>27.507999999999999</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>109.32383306674423</v>
       </c>
@@ -6079,7 +6158,7 @@
       <c r="D14" s="5">
         <v>37.002000000000002</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="41">
         <f t="shared" si="0"/>
         <v>40.461326414788381</v>
       </c>
@@ -6142,10 +6221,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>6</v>
@@ -6153,7 +6232,7 @@
       <c r="D15" s="30">
         <v>15</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
         <v>94.18</v>
       </c>
@@ -6227,7 +6306,7 @@
       <c r="D16" s="5">
         <v>7.2329999999999997</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="41">
         <f t="shared" si="0"/>
         <v>140.63044379925344</v>
       </c>
@@ -6299,11 +6378,11 @@
         <v>6</v>
       </c>
       <c r="D17" s="30">
-        <v>29.283999999999999</v>
-      </c>
-      <c r="E17" s="32">
+        <v>29.547999999999998</v>
+      </c>
+      <c r="E17" s="43">
         <f t="shared" si="0"/>
-        <v>66.718003005053959</v>
+        <v>66.726343576553404</v>
       </c>
       <c r="F17" s="33">
         <f>'Initial Buys'!K98</f>
@@ -6314,7 +6393,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="H17" s="21">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="I17" s="20">
         <v>0</v>
@@ -6351,15 +6430,15 @@
       </c>
       <c r="T17" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="U17" s="34">
         <f t="shared" si="2"/>
-        <v>17.690000000000001</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="V17" s="35">
         <f t="shared" si="3"/>
-        <v>1953.77</v>
+        <v>1971.6299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -6367,7 +6446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -6375,7 +6454,7 @@
       <c r="D18" s="5">
         <v>11.055999999999999</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="41">
         <f t="shared" si="0"/>
         <v>104.47811143270623</v>
       </c>
@@ -6449,7 +6528,7 @@
       <c r="D19" s="30">
         <v>25.670999999999999</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="43">
         <f t="shared" si="0"/>
         <v>77.92255852907951</v>
       </c>
@@ -6512,10 +6591,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -6523,7 +6602,7 @@
       <c r="D20" s="5">
         <v>10.06</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="41">
         <f t="shared" si="0"/>
         <v>130.30815109343936</v>
       </c>
@@ -6597,7 +6676,7 @@
       <c r="D21" s="30">
         <v>23.279</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="43">
         <f t="shared" si="0"/>
         <v>44.019072984234718</v>
       </c>
@@ -6671,7 +6750,7 @@
       <c r="D22" s="5">
         <v>61.228999999999999</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="41">
         <f t="shared" si="0"/>
         <v>36.655179735092851</v>
       </c>
@@ -6745,7 +6824,7 @@
       <c r="D23" s="30">
         <v>34.576000000000001</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="43">
         <f t="shared" si="0"/>
         <v>51.640444238778343</v>
       </c>
@@ -6819,7 +6898,7 @@
       <c r="D24" s="5">
         <v>29.992000000000001</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="41">
         <f t="shared" si="0"/>
         <v>66.168311549746605</v>
       </c>
@@ -6893,7 +6972,7 @@
       <c r="D25" s="30">
         <v>25.713000000000001</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>79.720374907634266</v>
       </c>
@@ -6970,7 +7049,7 @@
       </c>
       <c r="H26" s="40">
         <f>SUM(H2:H25)</f>
-        <v>24.7</v>
+        <v>50.569999999999993</v>
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
@@ -7018,15 +7097,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>24.7</v>
+        <v>50.569999999999993</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>960.17000000000019</v>
+        <v>986.04000000000008</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35847.090000000004</v>
+        <v>35872.959999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -547,23 +547,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -599,23 +582,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3232,7 +3198,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,7 +3222,8 @@
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3322,7 +3289,7 @@
         <v>20</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>5</v>
@@ -5160,7 +5127,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,11 +6197,11 @@
         <v>6</v>
       </c>
       <c r="D15" s="30">
-        <v>15</v>
+        <v>15.076000000000001</v>
       </c>
       <c r="E15" s="43">
         <f t="shared" si="0"/>
-        <v>94.18</v>
+        <v>94.172857521889085</v>
       </c>
       <c r="F15" s="33">
         <f>'Initial Buys'!E200</f>
@@ -6245,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="21">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="I15" s="20">
         <v>0</v>
@@ -6282,15 +6249,15 @@
       </c>
       <c r="T15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="U15" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="V15" s="35">
         <f t="shared" si="3"/>
-        <v>1412.7</v>
+        <v>1419.75</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -7049,7 +7016,7 @@
       </c>
       <c r="H26" s="40">
         <f>SUM(H2:H25)</f>
-        <v>50.569999999999993</v>
+        <v>57.62</v>
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
@@ -7097,15 +7064,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>50.569999999999993</v>
+        <v>57.62</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>986.04000000000008</v>
+        <v>993.09</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35872.959999999999</v>
+        <v>35880.01</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -282,8 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -451,9 +452,9 @@
     <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5127,7 +5128,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,11 +5680,11 @@
         <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>14.422000000000001</v>
+        <v>14.503</v>
       </c>
       <c r="E8" s="41">
         <f>V8/D8</f>
-        <v>72.590486756344475</v>
+        <v>72.781493484106733</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!Q48</f>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="20">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="J8" s="21">
         <v>0</v>
@@ -5732,15 +5732,15 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>33.96</v>
+        <v>42.61</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>1046.9000000000001</v>
+        <v>1055.55</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -5902,11 +5902,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="30">
-        <v>18.646000000000001</v>
+        <v>18.791</v>
       </c>
       <c r="E11" s="43">
         <f t="shared" si="0"/>
-        <v>57.213343344417027</v>
+        <v>57.248150710446488</v>
       </c>
       <c r="F11" s="33">
         <f>'Initial Buys'!Z48</f>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="20">
-        <v>0</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -5954,15 +5954,15 @@
       </c>
       <c r="T11" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="U11" s="34">
         <f t="shared" si="2"/>
-        <v>39.72</v>
+        <v>48.67</v>
       </c>
       <c r="V11" s="35">
         <f t="shared" si="3"/>
-        <v>1066.8</v>
+        <v>1075.75</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6716,11 +6716,11 @@
         <v>40</v>
       </c>
       <c r="D22" s="5">
-        <v>61.228999999999999</v>
+        <v>61.959000000000003</v>
       </c>
       <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>36.655179735092851</v>
+        <v>36.707500121047786</v>
       </c>
       <c r="F22" s="6">
         <f>'Initial Buys'!W98</f>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="21">
         <v>0</v>
@@ -6768,15 +6768,15 @@
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U22" s="15">
         <f t="shared" si="2"/>
-        <v>83.350000000000009</v>
+        <v>113.35000000000001</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="3"/>
-        <v>2244.36</v>
+        <v>2274.36</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -6790,11 +6790,11 @@
         <v>40</v>
       </c>
       <c r="D23" s="30">
-        <v>34.576000000000001</v>
+        <v>34.991999999999997</v>
       </c>
       <c r="E23" s="43">
         <f t="shared" si="0"/>
-        <v>51.640444238778343</v>
+        <v>51.597222222222229</v>
       </c>
       <c r="F23" s="33">
         <f>'Initial Buys'!Z98</f>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="20">
-        <v>0</v>
+        <v>19.97</v>
       </c>
       <c r="J23" s="21">
         <v>0</v>
@@ -6842,15 +6842,15 @@
       </c>
       <c r="T23" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.97</v>
       </c>
       <c r="U23" s="34">
         <f t="shared" si="2"/>
-        <v>28.189999999999998</v>
+        <v>48.16</v>
       </c>
       <c r="V23" s="35">
         <f t="shared" si="3"/>
-        <v>1785.52</v>
+        <v>1805.49</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
-        <v>0</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="J26" s="40">
         <f t="shared" si="4"/>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>57.62</v>
+        <v>125.18999999999998</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>993.09</v>
+        <v>1060.6599999999999</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35880.01</v>
+        <v>35947.58</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,11 +5384,11 @@
         <v>8</v>
       </c>
       <c r="D4" s="5">
-        <v>16.827999999999999</v>
+        <v>16.96</v>
       </c>
       <c r="E4" s="41">
         <f>V4/D4</f>
-        <v>64.75932968861423</v>
+        <v>65.019457547169807</v>
       </c>
       <c r="F4" s="6">
         <f>'Initial Buys'!H48</f>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="20">
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
@@ -5436,15 +5436,15 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" si="2"/>
-        <v>62.89</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="V4" s="13">
         <f t="shared" si="3"/>
-        <v>1089.7700000000002</v>
+        <v>1102.73</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -5532,11 +5532,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="5">
-        <v>16.454000000000001</v>
+        <v>16.547999999999998</v>
       </c>
       <c r="E6" s="41">
         <f t="shared" si="0"/>
-        <v>63.487297921478067</v>
+        <v>63.514624123761187</v>
       </c>
       <c r="F6" s="6">
         <f>'Initial Buys'!K48</f>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="20">
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="J6" s="21">
         <v>0</v>
@@ -5584,15 +5584,15 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="2"/>
-        <v>31.180000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>1044.6200000000001</v>
+        <v>1051.04</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -6420,11 +6420,11 @@
         <v>6</v>
       </c>
       <c r="D18" s="5">
-        <v>11.055999999999999</v>
+        <v>11.085000000000001</v>
       </c>
       <c r="E18" s="41">
         <f t="shared" si="0"/>
-        <v>104.47811143270623</v>
+        <v>104.20478123590436</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
@@ -6494,11 +6494,11 @@
         <v>6</v>
       </c>
       <c r="D19" s="30">
-        <v>25.670999999999999</v>
+        <v>25.86</v>
       </c>
       <c r="E19" s="43">
         <f t="shared" si="0"/>
-        <v>77.92255852907951</v>
+        <v>78.017788089713846</v>
       </c>
       <c r="F19" s="33">
         <f>'Initial Buys'!Q98</f>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="20">
-        <v>0</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="J19" s="21">
         <v>0</v>
@@ -6546,15 +6546,15 @@
       </c>
       <c r="T19" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="U19" s="34">
         <f t="shared" si="2"/>
-        <v>54.83</v>
+        <v>72.02</v>
       </c>
       <c r="V19" s="35">
         <f t="shared" si="3"/>
-        <v>2000.35</v>
+        <v>2017.54</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="I26" s="39">
         <f t="shared" ref="I26:U26" si="4">SUM(I2:I25)</f>
-        <v>67.569999999999993</v>
+        <v>104.14</v>
       </c>
       <c r="J26" s="40">
         <f t="shared" si="4"/>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>125.18999999999998</v>
+        <v>161.76</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1060.6599999999999</v>
+        <v>1097.2299999999998</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35947.58</v>
+        <v>35984.15</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,11 +5458,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="30">
-        <v>43.176000000000002</v>
+        <v>43.338999999999999</v>
       </c>
       <c r="E5" s="43">
         <f>V5/D5</f>
-        <v>47.483092458773392</v>
+        <v>47.493712360691291</v>
       </c>
       <c r="F5" s="33">
         <f>'Initial Buys'!B200</f>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="21">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -5510,15 +5510,15 @@
       </c>
       <c r="T5" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U5" s="34">
         <f t="shared" si="2"/>
-        <v>7.63</v>
+        <v>15.829999999999998</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="3"/>
-        <v>2050.13</v>
+        <v>2058.33</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -6568,11 +6568,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="5">
-        <v>10.06</v>
+        <v>10.113</v>
       </c>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>130.30815109343936</v>
+        <v>130.37179867497281</v>
       </c>
       <c r="F20" s="6">
         <f>'Initial Buys'!H200</f>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="21">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="K20" s="20">
         <v>0</v>
@@ -6620,15 +6620,15 @@
       </c>
       <c r="T20" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="U20" s="15">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>15.05</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>1310.9</v>
+        <v>1318.45</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="J26" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>161.76</v>
+        <v>177.51</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1097.2299999999998</v>
+        <v>1112.9799999999998</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35984.15</v>
+        <v>35999.9</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5606,11 +5606,11 @@
         <v>18</v>
       </c>
       <c r="D7" s="30">
-        <v>14.772</v>
+        <v>14.917</v>
       </c>
       <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>77.789060384511245</v>
+        <v>78.102165314741583</v>
       </c>
       <c r="F7" s="33">
         <f>'Initial Buys'!N48</f>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="21">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -5658,15 +5658,15 @@
       </c>
       <c r="T7" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="U7" s="34">
         <f t="shared" si="2"/>
-        <v>76.7</v>
+        <v>92.65</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="3"/>
-        <v>1149.1000000000001</v>
+        <v>1165.0500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -5828,11 +5828,11 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
-        <v>23.04</v>
+        <v>23.225999999999999</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>45.59071180555555</v>
+        <v>45.701799707224666</v>
       </c>
       <c r="F10" s="6">
         <f>'Initial Buys'!W48</f>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
@@ -5880,15 +5880,15 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="2"/>
-        <v>53.37</v>
+        <v>64.429999999999993</v>
       </c>
       <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>1050.4099999999999</v>
+        <v>1061.47</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -6272,11 +6272,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>7.2329999999999997</v>
+        <v>7.2779999999999996</v>
       </c>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>140.63044379925344</v>
+        <v>140.9288266007145</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!H98</f>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K16" s="20">
         <v>0</v>
@@ -6324,15 +6324,15 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="2"/>
-        <v>38.72</v>
+        <v>47.22</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>1017.1800000000001</v>
+        <v>1025.68</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -6642,11 +6642,11 @@
         <v>39</v>
       </c>
       <c r="D21" s="30">
-        <v>23.279</v>
+        <v>23.538</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="0"/>
-        <v>44.019072984234718</v>
+        <v>44.088707621718072</v>
       </c>
       <c r="F21" s="33">
         <f>'Initial Buys'!T98</f>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="21">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="K21" s="20">
         <v>0</v>
@@ -6694,15 +6694,15 @@
       </c>
       <c r="T21" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="U21" s="34">
         <f t="shared" si="2"/>
-        <v>62.22</v>
+        <v>75.259999999999991</v>
       </c>
       <c r="V21" s="35">
         <f t="shared" si="3"/>
-        <v>1024.72</v>
+        <v>1037.76</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -6938,11 +6938,11 @@
         <v>18</v>
       </c>
       <c r="D25" s="30">
-        <v>25.713000000000001</v>
+        <v>25.95</v>
       </c>
       <c r="E25" s="43">
         <f t="shared" si="0"/>
-        <v>79.720374907634266</v>
+        <v>79.735260115606948</v>
       </c>
       <c r="F25" s="33">
         <f>'Initial Buys'!B148</f>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="21">
-        <v>0</v>
+        <v>19.28</v>
       </c>
       <c r="K25" s="20">
         <v>0</v>
@@ -6990,15 +6990,15 @@
       </c>
       <c r="T25" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.28</v>
       </c>
       <c r="U25" s="34">
         <f t="shared" si="2"/>
-        <v>61.09</v>
+        <v>80.37</v>
       </c>
       <c r="V25" s="35">
         <f t="shared" si="3"/>
-        <v>2049.85</v>
+        <v>2069.13</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="J26" s="40">
         <f t="shared" si="4"/>
-        <v>15.75</v>
+        <v>83.58</v>
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>177.51</v>
+        <v>245.34</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1112.9799999999998</v>
+        <v>1180.81</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>35999.9</v>
+        <v>36067.729999999996</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -548,6 +548,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -583,6 +600,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,8 +772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +797,7 @@
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1284,6 +1318,12 @@
       <c r="Q52" s="27">
         <v>965.8</v>
       </c>
+      <c r="S52" s="4">
+        <v>42810</v>
+      </c>
+      <c r="T52">
+        <v>510</v>
+      </c>
       <c r="V52" s="4">
         <v>42612</v>
       </c>
@@ -1666,7 +1706,7 @@
       </c>
       <c r="T98" s="16">
         <f>SUM(T51:T97)</f>
-        <v>962.5</v>
+        <v>1472.5</v>
       </c>
       <c r="W98" s="16">
         <f>SUM(W51:W97)</f>
@@ -5128,7 +5168,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,11 +5276,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>24.89</v>
+        <v>25.068000000000001</v>
       </c>
       <c r="E2" s="41">
         <f t="shared" ref="E2:E25" si="0">V2/D2</f>
-        <v>42.39855363599839</v>
+        <v>42.415031115366205</v>
       </c>
       <c r="F2" s="6">
         <f>'Initial Buys'!B48</f>
@@ -5257,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="21">
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="K2" s="20">
         <v>0</v>
@@ -5288,15 +5328,15 @@
       </c>
       <c r="T2" s="15">
         <f t="shared" ref="T2:T25" si="1">SUM(H2:S2)</f>
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="U2" s="15">
         <f t="shared" ref="U2:U25" si="2">SUM(G2:S2)</f>
-        <v>36.019999999999996</v>
+        <v>43.98</v>
       </c>
       <c r="V2" s="13">
         <f t="shared" ref="V2:V25" si="3">SUM(F2, U2)</f>
-        <v>1055.3</v>
+        <v>1063.26</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5754,11 +5794,11 @@
         <v>39</v>
       </c>
       <c r="D9" s="30">
-        <v>14.654999999999999</v>
+        <v>14.787000000000001</v>
       </c>
       <c r="E9" s="43">
         <f t="shared" si="0"/>
-        <v>66.064824292050488</v>
+        <v>66.158788124704131</v>
       </c>
       <c r="F9" s="33">
         <f>'Initial Buys'!T48</f>
@@ -5775,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21">
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -5806,15 +5846,15 @@
       </c>
       <c r="T9" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="U9" s="34">
         <f t="shared" si="2"/>
-        <v>47.399999999999991</v>
+        <v>57.509999999999991</v>
       </c>
       <c r="V9" s="35">
         <f t="shared" si="3"/>
-        <v>968.18</v>
+        <v>978.29</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -6050,11 +6090,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="30">
-        <v>27.507999999999999</v>
+        <v>27.681000000000001</v>
       </c>
       <c r="E13" s="43">
         <f t="shared" si="0"/>
-        <v>109.32383306674423</v>
+        <v>109.43571402767242</v>
       </c>
       <c r="F13" s="33">
         <f>'Initial Buys'!B98</f>
@@ -6071,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21">
-        <v>0</v>
+        <v>22.01</v>
       </c>
       <c r="K13" s="20">
         <v>0</v>
@@ -6102,15 +6142,15 @@
       </c>
       <c r="T13" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.01</v>
       </c>
       <c r="U13" s="34">
         <f t="shared" si="2"/>
-        <v>56.180000000000007</v>
+        <v>78.190000000000012</v>
       </c>
       <c r="V13" s="35">
         <f t="shared" si="3"/>
-        <v>3007.28</v>
+        <v>3029.2900000000004</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -6642,15 +6682,15 @@
         <v>39</v>
       </c>
       <c r="D21" s="30">
-        <v>23.538</v>
+        <v>33.537999999999997</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="0"/>
-        <v>44.088707621718072</v>
+        <v>46.149442423519595</v>
       </c>
       <c r="F21" s="33">
         <f>'Initial Buys'!T98</f>
-        <v>962.5</v>
+        <v>1472.5</v>
       </c>
       <c r="G21" s="37">
         <f>'2016'!U21</f>
@@ -6702,7 +6742,7 @@
       </c>
       <c r="V21" s="35">
         <f t="shared" si="3"/>
-        <v>1037.76</v>
+        <v>1547.76</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -7009,7 +7049,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="38">
         <f>SUM(F2:F25)</f>
-        <v>34886.920000000006</v>
+        <v>35396.920000000006</v>
       </c>
       <c r="G26" s="39">
         <f>SUM(G2:G25)</f>
@@ -7025,7 +7065,7 @@
       </c>
       <c r="J26" s="40">
         <f t="shared" si="4"/>
-        <v>83.58</v>
+        <v>123.66</v>
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
@@ -7065,15 +7105,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>245.34</v>
+        <v>285.42000000000007</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1180.81</v>
+        <v>1220.8899999999999</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>36067.729999999996</v>
+        <v>36617.81</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5168,7 +5168,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,11 +5350,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="24">
-        <v>37.183999999999997</v>
+        <v>37.332000000000001</v>
       </c>
       <c r="E3" s="42">
         <f>V3/D3</f>
-        <v>50.030927280550777</v>
+        <v>50.014464802314365</v>
       </c>
       <c r="F3" s="8">
         <f>'Initial Buys'!E48</f>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="20">
-        <v>0</v>
+        <v>6.79</v>
       </c>
       <c r="L3" s="21">
         <v>0</v>
@@ -5402,15 +5402,15 @@
       </c>
       <c r="T3" s="14">
         <f t="shared" si="1"/>
-        <v>6.76</v>
+        <v>13.55</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="2"/>
-        <v>8.4599999999999991</v>
+        <v>15.25</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="3"/>
-        <v>1860.35</v>
+        <v>1867.1399999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -6164,11 +6164,11 @@
         <v>6</v>
       </c>
       <c r="D14" s="5">
-        <v>37.002000000000002</v>
+        <v>37.323999999999998</v>
       </c>
       <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>40.461326414788381</v>
+        <v>40.479048333511948</v>
       </c>
       <c r="F14" s="6">
         <f>'Initial Buys'!E98</f>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="20">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="L14" s="21">
         <v>0</v>
@@ -6216,15 +6216,15 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" si="2"/>
-        <v>43.55</v>
+        <v>57.239999999999995</v>
       </c>
       <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>1497.1499999999999</v>
+        <v>1510.84</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -6460,11 +6460,11 @@
         <v>6</v>
       </c>
       <c r="D18" s="5">
-        <v>11.085000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="E18" s="41">
         <f t="shared" si="0"/>
-        <v>104.20478123590436</v>
+        <v>104.25179211469535</v>
       </c>
       <c r="F18" s="6">
         <f>'Initial Buys'!N98</f>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="L18" s="21">
         <v>0</v>
@@ -6512,15 +6512,15 @@
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>3.05</v>
+        <v>11.39</v>
       </c>
       <c r="U18" s="15">
         <f t="shared" si="2"/>
-        <v>9.0399999999999991</v>
+        <v>17.38</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="3"/>
-        <v>1155.1099999999999</v>
+        <v>1163.45</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -6904,11 +6904,11 @@
         <v>6</v>
       </c>
       <c r="D24" s="5">
-        <v>29.992000000000001</v>
+        <v>30.204999999999998</v>
       </c>
       <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>66.168311549746605</v>
+        <v>66.208243668266846</v>
       </c>
       <c r="F24" s="6">
         <f>'Initial Buys'!AC98</f>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="20">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="L24" s="21">
         <v>0</v>
@@ -6956,15 +6956,15 @@
       </c>
       <c r="T24" s="15">
         <f t="shared" si="1"/>
-        <v>14.89</v>
+        <v>30.19</v>
       </c>
       <c r="U24" s="15">
         <f t="shared" si="2"/>
-        <v>67.759999999999991</v>
+        <v>83.059999999999988</v>
       </c>
       <c r="V24" s="13">
         <f t="shared" si="3"/>
-        <v>1984.5200000000002</v>
+        <v>1999.8200000000002</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44.120000000000005</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
@@ -7105,15 +7105,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>285.42000000000007</v>
+        <v>329.54000000000008</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1220.8899999999999</v>
+        <v>1265.0099999999998</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>36617.81</v>
+        <v>36661.93</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="83">
   <si>
     <t>Symbols</t>
   </si>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -548,23 +548,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -600,23 +583,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,8 +738,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X61" sqref="X61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +965,15 @@
       <c r="E3" s="2">
         <v>1361.34</v>
       </c>
-      <c r="Z3" s="16"/>
+      <c r="Y3" s="4">
+        <v>42842</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>928.72</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1117,7 +1091,7 @@
       </c>
       <c r="Z48" s="16">
         <f>SUM(Z2:Z47)</f>
-        <v>1027.08</v>
+        <v>1955.8</v>
       </c>
       <c r="AC48" s="16">
         <f>SUM(AC2:AC47)</f>
@@ -5168,7 +5142,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,15 +5916,15 @@
         <v>6</v>
       </c>
       <c r="D11" s="30">
-        <v>18.791</v>
+        <v>34.790999999999997</v>
       </c>
       <c r="E11" s="43">
         <f t="shared" si="0"/>
-        <v>57.248150710446488</v>
+        <v>57.614612974619881</v>
       </c>
       <c r="F11" s="33">
         <f>'Initial Buys'!Z48</f>
-        <v>1027.08</v>
+        <v>1955.8</v>
       </c>
       <c r="G11" s="37">
         <f>'2016'!U11</f>
@@ -6002,7 +5976,7 @@
       </c>
       <c r="V11" s="35">
         <f t="shared" si="3"/>
-        <v>1075.75</v>
+        <v>2004.47</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6016,11 +5990,11 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>12.393000000000001</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>83.121923666585957</v>
+        <v>83.361972057170391</v>
       </c>
       <c r="F12" s="6">
         <f>'Initial Buys'!AC48</f>
@@ -6040,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="20">
-        <v>0</v>
+        <v>8.06</v>
       </c>
       <c r="L12" s="21">
         <v>0</v>
@@ -6068,15 +6042,15 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" si="1"/>
-        <v>8.01</v>
+        <v>16.07</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" si="2"/>
-        <v>40.729999999999997</v>
+        <v>48.79</v>
       </c>
       <c r="V12" s="13">
         <f t="shared" si="3"/>
-        <v>1030.1299999999999</v>
+        <v>1038.19</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -6386,11 +6360,11 @@
         <v>6</v>
       </c>
       <c r="D17" s="30">
-        <v>29.547999999999998</v>
+        <v>29.797999999999998</v>
       </c>
       <c r="E17" s="43">
         <f t="shared" si="0"/>
-        <v>66.726343576553404</v>
+        <v>66.771259816095039</v>
       </c>
       <c r="F17" s="33">
         <f>'Initial Buys'!K98</f>
@@ -6410,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <v>0</v>
+        <v>18.02</v>
       </c>
       <c r="L17" s="21">
         <v>0</v>
@@ -6438,15 +6412,15 @@
       </c>
       <c r="T17" s="34">
         <f t="shared" si="1"/>
-        <v>17.86</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="U17" s="34">
         <f t="shared" si="2"/>
-        <v>35.549999999999997</v>
+        <v>53.569999999999993</v>
       </c>
       <c r="V17" s="35">
         <f t="shared" si="3"/>
-        <v>1971.6299999999999</v>
+        <v>1989.6499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -7049,7 +7023,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="38">
         <f>SUM(F2:F25)</f>
-        <v>35396.920000000006</v>
+        <v>36325.640000000007</v>
       </c>
       <c r="G26" s="39">
         <f>SUM(G2:G25)</f>
@@ -7069,7 +7043,7 @@
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
-        <v>44.120000000000005</v>
+        <v>70.2</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
@@ -7105,15 +7079,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>329.54000000000008</v>
+        <v>355.62000000000012</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1265.0099999999998</v>
+        <v>1291.0900000000001</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>36661.93</v>
+        <v>37616.729999999996</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5142,7 +5142,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,11 +6212,11 @@
         <v>6</v>
       </c>
       <c r="D15" s="30">
-        <v>15.076000000000001</v>
+        <v>15.146000000000001</v>
       </c>
       <c r="E15" s="43">
         <f t="shared" si="0"/>
-        <v>94.172857521889085</v>
+        <v>94.205730886042531</v>
       </c>
       <c r="F15" s="33">
         <f>'Initial Buys'!E200</f>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="20">
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="L15" s="21">
         <v>0</v>
@@ -6264,15 +6264,15 @@
       </c>
       <c r="T15" s="34">
         <f t="shared" si="1"/>
-        <v>7.05</v>
+        <v>14.14</v>
       </c>
       <c r="U15" s="34">
         <f t="shared" si="2"/>
-        <v>7.05</v>
+        <v>14.14</v>
       </c>
       <c r="V15" s="35">
         <f t="shared" si="3"/>
-        <v>1419.75</v>
+        <v>1426.8400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="K26" s="39">
         <f t="shared" si="4"/>
-        <v>70.2</v>
+        <v>77.289999999999992</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
@@ -7079,15 +7079,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>355.62000000000012</v>
+        <v>362.71000000000004</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1291.0900000000001</v>
+        <v>1298.1799999999998</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>37616.729999999996</v>
+        <v>37623.82</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -548,6 +548,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -583,6 +600,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,7 +773,7 @@
   <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,6 +993,12 @@
       <c r="BP2" s="16"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>42870</v>
+      </c>
+      <c r="B3">
+        <v>590.52</v>
+      </c>
       <c r="D3" s="4">
         <v>42612</v>
       </c>
@@ -1059,7 +1099,7 @@
       </c>
       <c r="B48" s="16">
         <f>SUM(B2:B47)</f>
-        <v>1019.28</v>
+        <v>1609.8</v>
       </c>
       <c r="E48" s="16">
         <f>SUM(E2:E47)</f>
@@ -5142,7 +5182,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5250,15 +5290,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>25.068000000000001</v>
+        <v>39.067999999999998</v>
       </c>
       <c r="E2" s="41">
         <f t="shared" ref="E2:E25" si="0">V2/D2</f>
-        <v>42.415031115366205</v>
+        <v>42.330807822258627</v>
       </c>
       <c r="F2" s="6">
         <f>'Initial Buys'!B48</f>
-        <v>1019.28</v>
+        <v>1609.8</v>
       </c>
       <c r="G2" s="36">
         <f>'2016'!U2</f>
@@ -5310,7 +5350,7 @@
       </c>
       <c r="V2" s="13">
         <f t="shared" ref="V2:V25" si="3">SUM(F2, U2)</f>
-        <v>1063.26</v>
+        <v>1653.78</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5546,11 +5586,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="5">
-        <v>16.547999999999998</v>
+        <v>16.64</v>
       </c>
       <c r="E6" s="41">
         <f t="shared" si="0"/>
-        <v>63.514624123761187</v>
+        <v>63.56129807692308</v>
       </c>
       <c r="F6" s="6">
         <f>'Initial Buys'!K48</f>
@@ -5573,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="21">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="M6" s="20">
         <v>0</v>
@@ -5598,15 +5638,15 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="1"/>
-        <v>6.42</v>
+        <v>13.04</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="2"/>
-        <v>37.6</v>
+        <v>44.22</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>1051.04</v>
+        <v>1057.6600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -5694,11 +5734,11 @@
         <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>14.503</v>
+        <v>14.582000000000001</v>
       </c>
       <c r="E8" s="41">
         <f>V8/D8</f>
-        <v>72.781493484106733</v>
+        <v>72.983815663146345</v>
       </c>
       <c r="F8" s="6">
         <f>'Initial Buys'!Q48</f>
@@ -5721,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="21">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M8" s="20">
         <v>0</v>
@@ -5746,15 +5786,15 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="1"/>
-        <v>8.65</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="2"/>
-        <v>42.61</v>
+        <v>51.31</v>
       </c>
       <c r="V8" s="13">
         <f t="shared" si="3"/>
-        <v>1055.55</v>
+        <v>1064.25</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -5916,11 +5956,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="30">
-        <v>34.790999999999997</v>
+        <v>34.951999999999998</v>
       </c>
       <c r="E11" s="43">
         <f t="shared" si="0"/>
-        <v>57.614612974619881</v>
+        <v>57.607289997711149</v>
       </c>
       <c r="F11" s="33">
         <f>'Initial Buys'!Z48</f>
@@ -5943,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="M11" s="20">
         <v>0</v>
@@ -5968,15 +6008,15 @@
       </c>
       <c r="T11" s="34">
         <f t="shared" si="1"/>
-        <v>8.9499999999999993</v>
+        <v>17.97</v>
       </c>
       <c r="U11" s="34">
         <f t="shared" si="2"/>
-        <v>48.67</v>
+        <v>57.69</v>
       </c>
       <c r="V11" s="35">
         <f t="shared" si="3"/>
-        <v>2004.47</v>
+        <v>2013.49</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6508,11 +6548,11 @@
         <v>6</v>
       </c>
       <c r="D19" s="30">
-        <v>25.86</v>
+        <v>26.065999999999999</v>
       </c>
       <c r="E19" s="43">
         <f t="shared" si="0"/>
-        <v>78.017788089713846</v>
+        <v>78.08524514693471</v>
       </c>
       <c r="F19" s="33">
         <f>'Initial Buys'!Q98</f>
@@ -6535,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="21">
-        <v>0</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="M19" s="20">
         <v>0</v>
@@ -6560,15 +6600,15 @@
       </c>
       <c r="T19" s="34">
         <f t="shared" si="1"/>
-        <v>17.190000000000001</v>
+        <v>35.019999999999996</v>
       </c>
       <c r="U19" s="34">
         <f t="shared" si="2"/>
-        <v>72.02</v>
+        <v>89.85</v>
       </c>
       <c r="V19" s="35">
         <f t="shared" si="3"/>
-        <v>2017.54</v>
+        <v>2035.37</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -6730,11 +6770,11 @@
         <v>40</v>
       </c>
       <c r="D22" s="5">
-        <v>61.959000000000003</v>
+        <v>62.738</v>
       </c>
       <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>36.707500121047786</v>
+        <v>36.735630718225003</v>
       </c>
       <c r="F22" s="6">
         <f>'Initial Buys'!W98</f>
@@ -6757,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="21">
-        <v>0</v>
+        <v>30.36</v>
       </c>
       <c r="M22" s="20">
         <v>0</v>
@@ -6782,15 +6822,15 @@
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60.36</v>
       </c>
       <c r="U22" s="15">
         <f t="shared" si="2"/>
-        <v>113.35000000000001</v>
+        <v>143.71</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="3"/>
-        <v>2274.36</v>
+        <v>2304.7200000000003</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -6804,11 +6844,11 @@
         <v>40</v>
       </c>
       <c r="D23" s="30">
-        <v>34.991999999999997</v>
+        <v>35.432000000000002</v>
       </c>
       <c r="E23" s="43">
         <f t="shared" si="0"/>
-        <v>51.597222222222229</v>
+        <v>51.526868367577322</v>
       </c>
       <c r="F23" s="33">
         <f>'Initial Buys'!Z98</f>
@@ -6831,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="21">
-        <v>0</v>
+        <v>20.21</v>
       </c>
       <c r="M23" s="20">
         <v>0</v>
@@ -6856,15 +6896,15 @@
       </c>
       <c r="T23" s="34">
         <f t="shared" si="1"/>
-        <v>19.97</v>
+        <v>40.18</v>
       </c>
       <c r="U23" s="34">
         <f t="shared" si="2"/>
-        <v>48.16</v>
+        <v>68.37</v>
       </c>
       <c r="V23" s="35">
         <f t="shared" si="3"/>
-        <v>1805.49</v>
+        <v>1825.6999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -7023,7 +7063,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="38">
         <f>SUM(F2:F25)</f>
-        <v>36325.640000000007</v>
+        <v>36916.160000000003</v>
       </c>
       <c r="G26" s="39">
         <f>SUM(G2:G25)</f>
@@ -7047,7 +7087,7 @@
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>92.740000000000009</v>
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
@@ -7079,15 +7119,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>362.71000000000004</v>
+        <v>455.44999999999993</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1298.1799999999998</v>
+        <v>1390.92</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>37623.82</v>
+        <v>38307.079999999994</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -548,23 +548,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -600,23 +583,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5182,7 +5148,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,11 +5404,11 @@
         <v>8</v>
       </c>
       <c r="D4" s="5">
-        <v>16.96</v>
+        <v>17.087</v>
       </c>
       <c r="E4" s="41">
         <f>V4/D4</f>
-        <v>65.019457547169807</v>
+        <v>65.300520863814612</v>
       </c>
       <c r="F4" s="6">
         <f>'Initial Buys'!H48</f>
@@ -5465,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="M4" s="20">
         <v>0</v>
@@ -5490,15 +5456,15 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" si="1"/>
-        <v>12.96</v>
+        <v>26.020000000000003</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" si="2"/>
-        <v>75.849999999999994</v>
+        <v>88.91</v>
       </c>
       <c r="V4" s="13">
         <f t="shared" si="3"/>
-        <v>1102.73</v>
+        <v>1115.7900000000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -7087,7 +7053,7 @@
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
-        <v>92.740000000000009</v>
+        <v>105.80000000000001</v>
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
@@ -7119,15 +7085,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>455.44999999999993</v>
+        <v>468.51</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1390.92</v>
+        <v>1403.98</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>38307.079999999994</v>
+        <v>38320.14</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5148,7 +5148,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,11 +5256,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>39.067999999999998</v>
+        <v>39.366</v>
       </c>
       <c r="E2" s="41">
         <f t="shared" ref="E2:E25" si="0">V2/D2</f>
-        <v>42.330807822258627</v>
+        <v>42.327897170146827</v>
       </c>
       <c r="F2" s="6">
         <f>'Initial Buys'!B48</f>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="20">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="N2" s="21">
         <v>0</v>
@@ -5308,15 +5308,15 @@
       </c>
       <c r="T2" s="15">
         <f t="shared" ref="T2:T25" si="1">SUM(H2:S2)</f>
-        <v>7.96</v>
+        <v>20.46</v>
       </c>
       <c r="U2" s="15">
         <f t="shared" ref="U2:U25" si="2">SUM(G2:S2)</f>
-        <v>43.98</v>
+        <v>56.48</v>
       </c>
       <c r="V2" s="13">
         <f t="shared" ref="V2:V25" si="3">SUM(F2, U2)</f>
-        <v>1653.78</v>
+        <v>1666.28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5478,11 +5478,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="30">
-        <v>43.338999999999999</v>
+        <v>43.496000000000002</v>
       </c>
       <c r="E5" s="43">
         <f>V5/D5</f>
-        <v>47.493712360691291</v>
+        <v>47.511495309913549</v>
       </c>
       <c r="F5" s="33">
         <f>'Initial Buys'!B200</f>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="20">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="N5" s="21">
         <v>0</v>
@@ -5530,15 +5530,15 @@
       </c>
       <c r="T5" s="34">
         <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>16.43</v>
       </c>
       <c r="U5" s="34">
         <f t="shared" si="2"/>
-        <v>15.829999999999998</v>
+        <v>24.06</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="3"/>
-        <v>2058.33</v>
+        <v>2066.56</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -6588,11 +6588,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="5">
-        <v>10.113</v>
+        <v>10.170999999999999</v>
       </c>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>130.37179867497281</v>
+        <v>130.37361124766497</v>
       </c>
       <c r="F20" s="6">
         <f>'Initial Buys'!H200</f>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="20">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="N20" s="21">
         <v>0</v>
@@ -6640,15 +6640,15 @@
       </c>
       <c r="T20" s="15">
         <f t="shared" si="1"/>
-        <v>7.55</v>
+        <v>15.129999999999999</v>
       </c>
       <c r="U20" s="15">
         <f t="shared" si="2"/>
-        <v>15.05</v>
+        <v>22.630000000000003</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>1318.45</v>
+        <v>1326.0300000000002</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6662,11 +6662,11 @@
         <v>39</v>
       </c>
       <c r="D21" s="30">
-        <v>33.537999999999997</v>
+        <v>33.92</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="0"/>
-        <v>46.149442423519595</v>
+        <v>46.203125</v>
       </c>
       <c r="F21" s="33">
         <f>'Initial Buys'!T98</f>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="20">
-        <v>0</v>
+        <v>19.45</v>
       </c>
       <c r="N21" s="21">
         <v>0</v>
@@ -6714,15 +6714,15 @@
       </c>
       <c r="T21" s="34">
         <f t="shared" si="1"/>
-        <v>13.04</v>
+        <v>32.489999999999995</v>
       </c>
       <c r="U21" s="34">
         <f t="shared" si="2"/>
-        <v>75.259999999999991</v>
+        <v>94.71</v>
       </c>
       <c r="V21" s="35">
         <f t="shared" si="3"/>
-        <v>1547.76</v>
+        <v>1567.21</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -6884,11 +6884,11 @@
         <v>6</v>
       </c>
       <c r="D24" s="5">
-        <v>30.204999999999998</v>
+        <v>30.4</v>
       </c>
       <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>66.208243668266846</v>
+        <v>66.290131578947381</v>
       </c>
       <c r="F24" s="6">
         <f>'Initial Buys'!AC98</f>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="20">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N24" s="21">
         <v>0</v>
@@ -6936,15 +6936,15 @@
       </c>
       <c r="T24" s="15">
         <f t="shared" si="1"/>
-        <v>30.19</v>
+        <v>45.59</v>
       </c>
       <c r="U24" s="15">
         <f t="shared" si="2"/>
-        <v>83.059999999999988</v>
+        <v>98.46</v>
       </c>
       <c r="V24" s="13">
         <f t="shared" si="3"/>
-        <v>1999.8200000000002</v>
+        <v>2015.2200000000003</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63.160000000000004</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="4"/>
@@ -7085,15 +7085,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>468.51</v>
+        <v>531.66999999999996</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1403.98</v>
+        <v>1467.1399999999999</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>38320.14</v>
+        <v>38383.299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -738,8 +738,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,21 +1917,25 @@
       <c r="B152" s="27"/>
       <c r="D152" s="4"/>
       <c r="E152" s="27"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="27"/>
+      <c r="G152" s="4">
+        <v>42898</v>
+      </c>
+      <c r="H152" s="27">
+        <v>639.6</v>
+      </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="27">
-        <f>SUM(B151,B199)</f>
+        <f>SUM(B151:B199)</f>
         <v>2042.5</v>
       </c>
       <c r="E200" s="27">
-        <f>SUM(E151,E199)</f>
+        <f>SUM(E151:E199)</f>
         <v>1412.7</v>
       </c>
       <c r="H200" s="27">
-        <f>SUM(H151,H199)</f>
-        <v>1303.4000000000001</v>
+        <f>SUM(H151:H199)</f>
+        <v>1943</v>
       </c>
     </row>
   </sheetData>
@@ -5148,7 +5152,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,11 +5852,11 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
-        <v>23.225999999999999</v>
+        <v>23.408999999999999</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>45.701799707224666</v>
+        <v>45.820838139177233</v>
       </c>
       <c r="F10" s="6">
         <f>'Initial Buys'!W48</f>
@@ -5878,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="N10" s="21">
         <v>0</v>
@@ -5900,15 +5904,15 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>11.06</v>
+        <v>22.21</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="2"/>
-        <v>64.429999999999993</v>
+        <v>75.58</v>
       </c>
       <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>1061.47</v>
+        <v>1072.6199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -6588,15 +6592,15 @@
         <v>6</v>
       </c>
       <c r="D20" s="5">
-        <v>10.170999999999999</v>
+        <v>15.170999999999999</v>
       </c>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>130.37361124766497</v>
+        <v>129.56495946213172</v>
       </c>
       <c r="F20" s="6">
         <f>'Initial Buys'!H200</f>
-        <v>1303.4000000000001</v>
+        <v>1943</v>
       </c>
       <c r="G20" s="36">
         <f>'2016'!U20</f>
@@ -6648,7 +6652,7 @@
       </c>
       <c r="V20" s="13">
         <f t="shared" si="3"/>
-        <v>1326.0300000000002</v>
+        <v>1965.63</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6958,11 +6962,11 @@
         <v>18</v>
       </c>
       <c r="D25" s="30">
-        <v>25.95</v>
+        <v>26.190999999999999</v>
       </c>
       <c r="E25" s="43">
         <f t="shared" si="0"/>
-        <v>79.735260115606948</v>
+        <v>79.764422893360319</v>
       </c>
       <c r="F25" s="33">
         <f>'Initial Buys'!B148</f>
@@ -6988,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="20">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="N25" s="21">
         <v>0</v>
@@ -7010,15 +7014,15 @@
       </c>
       <c r="T25" s="34">
         <f t="shared" si="1"/>
-        <v>19.28</v>
+        <v>39.260000000000005</v>
       </c>
       <c r="U25" s="34">
         <f t="shared" si="2"/>
-        <v>80.37</v>
+        <v>100.35000000000001</v>
       </c>
       <c r="V25" s="35">
         <f t="shared" si="3"/>
-        <v>2069.13</v>
+        <v>2089.11</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -7029,7 +7033,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="38">
         <f>SUM(F2:F25)</f>
-        <v>36916.160000000003</v>
+        <v>37555.760000000002</v>
       </c>
       <c r="G26" s="39">
         <f>SUM(G2:G25)</f>
@@ -7057,7 +7061,7 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
-        <v>63.160000000000004</v>
+        <v>94.29</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="4"/>
@@ -7085,15 +7089,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>531.66999999999996</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1467.1399999999999</v>
+        <v>1498.27</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>38383.299999999996</v>
+        <v>39054.03</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5152,7 +5152,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,11 +5630,11 @@
         <v>18</v>
       </c>
       <c r="D7" s="30">
-        <v>14.917</v>
+        <v>15.066000000000001</v>
       </c>
       <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>78.102165314741583</v>
+        <v>78.399044205495827</v>
       </c>
       <c r="F7" s="33">
         <f>'Initial Buys'!N48</f>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="20">
-        <v>0</v>
+        <v>16.11</v>
       </c>
       <c r="N7" s="21">
         <v>0</v>
@@ -5682,15 +5682,15 @@
       </c>
       <c r="T7" s="34">
         <f t="shared" si="1"/>
-        <v>15.95</v>
+        <v>32.06</v>
       </c>
       <c r="U7" s="34">
         <f t="shared" si="2"/>
-        <v>92.65</v>
+        <v>108.76</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="3"/>
-        <v>1165.0500000000002</v>
+        <v>1181.1600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -6296,11 +6296,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>7.2779999999999996</v>
+        <v>7.319</v>
       </c>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>140.9288266007145</v>
+        <v>141.30755567700507</v>
       </c>
       <c r="F16" s="6">
         <f>'Initial Buys'!H98</f>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <v>0</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="N16" s="21">
         <v>0</v>
@@ -6348,15 +6348,15 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>17.05</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="2"/>
-        <v>47.22</v>
+        <v>55.769999999999996</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>1025.68</v>
+        <v>1034.23</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
-        <v>94.29</v>
+        <v>118.95000000000002</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="4"/>
@@ -7089,15 +7089,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>562.79999999999995</v>
+        <v>587.45999999999992</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1498.27</v>
+        <v>1522.9299999999998</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>39054.03</v>
+        <v>39078.69</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5152,7 +5152,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,11 +6074,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="30">
-        <v>27.681000000000001</v>
+        <v>27.856000000000002</v>
       </c>
       <c r="E13" s="43">
         <f t="shared" si="0"/>
-        <v>109.43571402767242</v>
+        <v>109.5828546812177</v>
       </c>
       <c r="F13" s="33">
         <f>'Initial Buys'!B98</f>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="20">
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="N13" s="21">
         <v>0</v>
@@ -6126,15 +6126,15 @@
       </c>
       <c r="T13" s="34">
         <f t="shared" si="1"/>
-        <v>22.01</v>
+        <v>45.260000000000005</v>
       </c>
       <c r="U13" s="34">
         <f t="shared" si="2"/>
-        <v>78.190000000000012</v>
+        <v>101.44000000000001</v>
       </c>
       <c r="V13" s="35">
         <f t="shared" si="3"/>
-        <v>3029.2900000000004</v>
+        <v>3052.5400000000004</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
-        <v>118.95000000000002</v>
+        <v>142.20000000000002</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="4"/>
@@ -7089,15 +7089,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>587.45999999999992</v>
+        <v>610.70999999999992</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1522.9299999999998</v>
+        <v>1546.1800000000003</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>39078.69</v>
+        <v>39101.94</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Taxable.xlsx
+++ b/DividendLiberty/Taxable.xlsx
@@ -5152,7 +5152,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,11 +5778,11 @@
         <v>39</v>
       </c>
       <c r="D9" s="30">
-        <v>14.787000000000001</v>
+        <v>14.907</v>
       </c>
       <c r="E9" s="43">
         <f t="shared" si="0"/>
-        <v>66.158788124704131</v>
+        <v>66.310458174012211</v>
       </c>
       <c r="F9" s="33">
         <f>'Initial Buys'!T48</f>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="20">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N9" s="21">
         <v>0</v>
@@ -5830,15 +5830,15 @@
       </c>
       <c r="T9" s="34">
         <f t="shared" si="1"/>
-        <v>10.11</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="U9" s="34">
         <f t="shared" si="2"/>
-        <v>57.509999999999991</v>
+        <v>67.709999999999994</v>
       </c>
       <c r="V9" s="35">
         <f t="shared" si="3"/>
-        <v>978.29</v>
+        <v>988.49</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="4"/>
-        <v>142.20000000000002</v>
+        <v>152.39999999999998</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="4"/>
@@ -7089,15 +7089,15 @@
       </c>
       <c r="T26" s="39">
         <f t="shared" si="4"/>
-        <v>610.70999999999992</v>
+        <v>620.91</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="4"/>
-        <v>1546.1800000000003</v>
+        <v>1556.38</v>
       </c>
       <c r="V26" s="17">
         <f>SUM(V2:V25)</f>
-        <v>39101.94</v>
+        <v>39112.14</v>
       </c>
     </row>
   </sheetData>
